--- a/ExcelFiles/HomeLoanCaseStudy.xlsx
+++ b/ExcelFiles/HomeLoanCaseStudy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{AF91B1B7-9C0E-499A-BC83-A0A932F09CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1484397D-70EC-40D5-B63D-5C076FCF1C91}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{AF91B1B7-9C0E-499A-BC83-A0A932F09CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1145158-01C8-4475-A981-46094053D16E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1610,7 +1610,7 @@
 </t>
   </si>
   <si>
-    <t>Winter 2023</t>
+    <t>Spring 2023</t>
   </si>
 </sst>
 </file>
@@ -3439,106 +3439,25 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -3558,8 +3477,65 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3597,99 +3573,94 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -3698,15 +3669,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3721,6 +3683,34 @@
     <xf numFmtId="0" fontId="51" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3734,26 +3724,36 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5611,31 +5611,31 @@
     <row r="2" spans="1:109" ht="30.75">
       <c r="A2" s="2"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
+      <c r="R2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -5664,14 +5664,14 @@
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -5716,14 +5716,14 @@
       <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="202" t="s">
+      <c r="D4" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="204"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="179"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -5737,7 +5737,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="195" t="s">
+      <c r="W4" s="183" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="16"/>
@@ -5758,12 +5758,12 @@
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="207"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="182"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -5771,7 +5771,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="7"/>
       <c r="R5" s="18"/>
-      <c r="W5" s="195"/>
+      <c r="W5" s="183"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
@@ -5796,15 +5796,15 @@
       <c r="N6" s="5"/>
       <c r="O6" s="7"/>
       <c r="R6" s="18"/>
-      <c r="W6" s="233" t="s">
+      <c r="W6" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="234"/>
-      <c r="AA6" s="234"/>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="235"/>
+      <c r="X6" s="185"/>
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="185"/>
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="185"/>
+      <c r="AC6" s="186"/>
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:109" ht="27" thickBot="1">
@@ -5813,40 +5813,40 @@
       <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="204"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="7"/>
-      <c r="Q7" s="227" t="s">
+      <c r="Q7" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="227"/>
+      <c r="R7" s="197"/>
       <c r="S7" s="21"/>
       <c r="W7" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="228"/>
-      <c r="Y7" s="229"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="173"/>
       <c r="Z7" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="AA7" s="228"/>
-      <c r="AB7" s="229"/>
+      <c r="AA7" s="172"/>
+      <c r="AB7" s="173"/>
       <c r="AC7" s="165"/>
-      <c r="AG7" s="227" t="s">
+      <c r="AG7" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="AH7" s="227"/>
+      <c r="AH7" s="197"/>
       <c r="AI7" s="22"/>
       <c r="AL7" s="2"/>
     </row>
@@ -5854,22 +5854,22 @@
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="238"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="189"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="208" t="s">
+      <c r="O8" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="227"/>
-      <c r="R8" s="227"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="197"/>
       <c r="S8" s="24" t="s">
         <v>12</v>
       </c>
@@ -5877,23 +5877,23 @@
       <c r="W8" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="228"/>
-      <c r="Y8" s="229"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="173"/>
       <c r="Z8" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="228"/>
-      <c r="AB8" s="229"/>
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="173"/>
       <c r="AC8" s="166"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="25"/>
       <c r="AF8" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="227"/>
-      <c r="AH8" s="227"/>
+      <c r="AG8" s="197"/>
+      <c r="AH8" s="197"/>
       <c r="AI8" s="22"/>
-      <c r="AJ8" s="208" t="s">
+      <c r="AJ8" s="171" t="s">
         <v>15</v>
       </c>
       <c r="AL8" s="2"/>
@@ -5902,20 +5902,20 @@
       <c r="A9" s="2"/>
       <c r="B9" s="27"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="207"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="182"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="208"/>
-      <c r="Q9" s="227"/>
-      <c r="R9" s="227"/>
+      <c r="O9" s="171"/>
+      <c r="Q9" s="197"/>
+      <c r="R9" s="197"/>
       <c r="S9" s="28" t="s">
         <v>20</v>
       </c>
@@ -5923,23 +5923,23 @@
       <c r="W9" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="223"/>
-      <c r="Y9" s="224"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="193"/>
       <c r="Z9" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="223"/>
-      <c r="AB9" s="224"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="193"/>
       <c r="AC9" s="169"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="29"/>
       <c r="AF9" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="AG9" s="227"/>
-      <c r="AH9" s="227"/>
+      <c r="AG9" s="197"/>
+      <c r="AH9" s="197"/>
       <c r="AI9" s="22"/>
-      <c r="AJ9" s="208"/>
+      <c r="AJ9" s="171"/>
       <c r="AL9" s="2"/>
     </row>
     <row r="10" spans="1:109" ht="20.25">
@@ -5958,30 +5958,30 @@
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="O10" s="31"/>
-      <c r="Q10" s="225" t="s">
+      <c r="Q10" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="225"/>
+      <c r="R10" s="194"/>
       <c r="S10" s="28" t="s">
         <v>16</v>
       </c>
       <c r="T10" s="29"/>
-      <c r="W10" s="226"/>
-      <c r="X10" s="226"/>
-      <c r="Y10" s="226"/>
-      <c r="Z10" s="226"/>
-      <c r="AA10" s="226"/>
-      <c r="AB10" s="226"/>
-      <c r="AC10" s="226"/>
+      <c r="W10" s="195"/>
+      <c r="X10" s="195"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="195"/>
+      <c r="AA10" s="195"/>
+      <c r="AB10" s="195"/>
+      <c r="AC10" s="195"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="29"/>
       <c r="AF10" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="AG10" s="187" t="s">
+      <c r="AG10" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AH10" s="187"/>
+      <c r="AH10" s="196"/>
       <c r="AI10" s="32"/>
       <c r="AL10" s="2"/>
     </row>
@@ -5991,14 +5991,14 @@
       <c r="C11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="202" t="s">
+      <c r="D11" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="204"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="179"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
@@ -6006,26 +6006,26 @@
       <c r="N11" s="27"/>
       <c r="O11" s="31"/>
       <c r="P11" s="33"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="225"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
       <c r="S11" s="28" t="s">
         <v>67</v>
       </c>
       <c r="T11" s="29"/>
-      <c r="W11" s="226"/>
-      <c r="X11" s="226"/>
-      <c r="Y11" s="226"/>
-      <c r="Z11" s="226"/>
-      <c r="AA11" s="226"/>
-      <c r="AB11" s="226"/>
-      <c r="AC11" s="226"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="195"/>
+      <c r="AA11" s="195"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="195"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="AG11" s="187"/>
-      <c r="AH11" s="187"/>
+      <c r="AG11" s="196"/>
+      <c r="AH11" s="196"/>
       <c r="AI11" s="32"/>
       <c r="AL11" s="2"/>
     </row>
@@ -6033,12 +6033,12 @@
       <c r="A12" s="2"/>
       <c r="B12" s="27"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="207"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="182"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
@@ -6046,26 +6046,26 @@
       <c r="N12" s="27"/>
       <c r="O12" s="31"/>
       <c r="P12" s="33"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="225"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="194"/>
       <c r="S12" s="28" t="s">
         <v>24</v>
       </c>
       <c r="T12" s="35"/>
-      <c r="W12" s="226"/>
-      <c r="X12" s="226"/>
-      <c r="Y12" s="226"/>
-      <c r="Z12" s="226"/>
-      <c r="AA12" s="226"/>
-      <c r="AB12" s="226"/>
-      <c r="AC12" s="226"/>
+      <c r="W12" s="195"/>
+      <c r="X12" s="195"/>
+      <c r="Y12" s="195"/>
+      <c r="Z12" s="195"/>
+      <c r="AA12" s="195"/>
+      <c r="AB12" s="195"/>
+      <c r="AC12" s="195"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="35"/>
       <c r="AF12" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="AG12" s="187"/>
-      <c r="AH12" s="187"/>
+      <c r="AG12" s="196"/>
+      <c r="AH12" s="196"/>
       <c r="AI12" s="32"/>
       <c r="AL12" s="2"/>
     </row>
@@ -6090,13 +6090,13 @@
         <v>25</v>
       </c>
       <c r="T13" s="37"/>
-      <c r="W13" s="226"/>
-      <c r="X13" s="226"/>
-      <c r="Y13" s="226"/>
-      <c r="Z13" s="226"/>
-      <c r="AA13" s="226"/>
-      <c r="AB13" s="226"/>
-      <c r="AC13" s="226"/>
+      <c r="W13" s="195"/>
+      <c r="X13" s="195"/>
+      <c r="Y13" s="195"/>
+      <c r="Z13" s="195"/>
+      <c r="AA13" s="195"/>
+      <c r="AB13" s="195"/>
+      <c r="AC13" s="195"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="37"/>
       <c r="AF13" s="150" t="s">
@@ -6113,14 +6113,14 @@
       <c r="C14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="202" t="s">
+      <c r="D14" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="204"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="179"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -6134,13 +6134,13 @@
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
       <c r="V14" s="39"/>
-      <c r="W14" s="226"/>
-      <c r="X14" s="226"/>
-      <c r="Y14" s="226"/>
-      <c r="Z14" s="226"/>
-      <c r="AA14" s="226"/>
-      <c r="AB14" s="226"/>
-      <c r="AC14" s="226"/>
+      <c r="W14" s="195"/>
+      <c r="X14" s="195"/>
+      <c r="Y14" s="195"/>
+      <c r="Z14" s="195"/>
+      <c r="AA14" s="195"/>
+      <c r="AB14" s="195"/>
+      <c r="AC14" s="195"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="150" t="s">
@@ -6155,12 +6155,12 @@
       <c r="A15" s="2"/>
       <c r="B15" s="27"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="207"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="182"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -6173,13 +6173,13 @@
       <c r="T15" s="29"/>
       <c r="U15" s="39"/>
       <c r="V15" s="39"/>
-      <c r="W15" s="226"/>
-      <c r="X15" s="226"/>
-      <c r="Y15" s="226"/>
-      <c r="Z15" s="226"/>
-      <c r="AA15" s="226"/>
-      <c r="AB15" s="226"/>
-      <c r="AC15" s="226"/>
+      <c r="W15" s="195"/>
+      <c r="X15" s="195"/>
+      <c r="Y15" s="195"/>
+      <c r="Z15" s="195"/>
+      <c r="AA15" s="195"/>
+      <c r="AB15" s="195"/>
+      <c r="AC15" s="195"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="29"/>
       <c r="AF15" s="150" t="s">
@@ -6211,13 +6211,13 @@
         <v>29</v>
       </c>
       <c r="T16" s="43"/>
-      <c r="W16" s="226"/>
-      <c r="X16" s="226"/>
-      <c r="Y16" s="226"/>
-      <c r="Z16" s="226"/>
-      <c r="AA16" s="226"/>
-      <c r="AB16" s="226"/>
-      <c r="AC16" s="226"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="195"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="195"/>
+      <c r="AC16" s="195"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="43"/>
       <c r="AF16" s="151" t="s">
@@ -6234,16 +6234,16 @@
       <c r="C17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="202" t="s">
+      <c r="D17" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="204"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="179"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="208" t="s">
+      <c r="K17" s="171" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="27"/>
@@ -6252,16 +6252,16 @@
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="45"/>
-      <c r="S17" s="221" t="s">
+      <c r="S17" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="221"/>
+      <c r="T17" s="190"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="26"/>
-      <c r="AE17" s="221" t="s">
+      <c r="AE17" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="AF17" s="221"/>
+      <c r="AF17" s="190"/>
       <c r="AG17" s="46"/>
       <c r="AH17" s="46"/>
       <c r="AI17" s="33"/>
@@ -6271,21 +6271,21 @@
       <c r="A18" s="2"/>
       <c r="B18" s="27"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="207"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="182"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="208"/>
+      <c r="K18" s="171"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
-      <c r="P18" s="222" t="s">
+      <c r="P18" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="222"/>
+      <c r="Q18" s="191"/>
       <c r="R18" s="47" t="s">
         <v>34</v>
       </c>
@@ -6298,10 +6298,10 @@
       <c r="Z18" s="49"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
-      <c r="AD18" s="222" t="s">
+      <c r="AD18" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="AE18" s="222"/>
+      <c r="AE18" s="191"/>
       <c r="AF18" s="47" t="s">
         <v>34</v>
       </c>
@@ -6323,11 +6323,11 @@
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="209" t="s">
+      <c r="K19" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="210"/>
-      <c r="M19" s="211"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="204"/>
       <c r="N19" s="27"/>
       <c r="P19" s="51" t="s">
         <v>36</v>
@@ -6373,14 +6373,14 @@
       <c r="C20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="212" t="s">
+      <c r="D20" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="207"/>
       <c r="J20" s="27"/>
       <c r="K20" s="56"/>
       <c r="L20" s="57"/>
@@ -6393,7 +6393,7 @@
       <c r="R20" s="59"/>
       <c r="S20" s="60"/>
       <c r="T20" s="59"/>
-      <c r="W20" s="195" t="s">
+      <c r="W20" s="183" t="s">
         <v>5</v>
       </c>
       <c r="X20" s="49"/>
@@ -6415,17 +6415,17 @@
       <c r="A21" s="2"/>
       <c r="B21" s="27"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="217"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="210"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="196" t="s">
+      <c r="K21" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="197"/>
+      <c r="L21" s="199"/>
       <c r="M21" s="59"/>
       <c r="N21" s="27"/>
       <c r="P21" s="162">
@@ -6435,7 +6435,7 @@
       <c r="R21" s="59"/>
       <c r="S21" s="60"/>
       <c r="T21" s="59"/>
-      <c r="W21" s="195"/>
+      <c r="W21" s="183"/>
       <c r="X21" s="49"/>
       <c r="Y21" s="49"/>
       <c r="Z21" s="49"/>
@@ -6455,17 +6455,17 @@
       <c r="A22" s="2"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="217"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="210"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="196" t="s">
+      <c r="K22" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="197"/>
+      <c r="L22" s="199"/>
       <c r="M22" s="60"/>
       <c r="N22" s="27"/>
       <c r="P22" s="162">
@@ -6475,14 +6475,14 @@
       <c r="R22" s="59"/>
       <c r="S22" s="60"/>
       <c r="T22" s="59"/>
-      <c r="W22" s="194" t="s">
+      <c r="W22" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="X22" s="194"/>
-      <c r="Y22" s="194"/>
-      <c r="Z22" s="194"/>
-      <c r="AA22" s="194"/>
-      <c r="AB22" s="194"/>
+      <c r="X22" s="221"/>
+      <c r="Y22" s="221"/>
+      <c r="Z22" s="221"/>
+      <c r="AA22" s="221"/>
+      <c r="AB22" s="221"/>
       <c r="AD22" s="162">
         <v>3</v>
       </c>
@@ -6497,17 +6497,17 @@
       <c r="A23" s="2"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="217"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="210"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="196" t="s">
+      <c r="K23" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="197"/>
+      <c r="L23" s="199"/>
       <c r="M23" s="59"/>
       <c r="N23" s="27"/>
       <c r="P23" s="162">
@@ -6517,12 +6517,12 @@
       <c r="R23" s="59"/>
       <c r="S23" s="60"/>
       <c r="T23" s="59"/>
-      <c r="W23" s="194"/>
-      <c r="X23" s="194"/>
-      <c r="Y23" s="194"/>
-      <c r="Z23" s="194"/>
-      <c r="AA23" s="194"/>
-      <c r="AB23" s="194"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
       <c r="AD23" s="162">
         <v>4</v>
       </c>
@@ -6537,17 +6537,17 @@
       <c r="A24" s="2"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="217"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="210"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="196" t="s">
+      <c r="K24" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="197"/>
+      <c r="L24" s="199"/>
       <c r="M24" s="158"/>
       <c r="N24" s="27"/>
       <c r="P24" s="162">
@@ -6557,14 +6557,14 @@
       <c r="R24" s="59"/>
       <c r="S24" s="60"/>
       <c r="T24" s="59"/>
-      <c r="W24" s="171" t="s">
+      <c r="W24" s="214" t="s">
         <v>47</v>
       </c>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="172"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="174"/>
-      <c r="AB24" s="175"/>
+      <c r="X24" s="215"/>
+      <c r="Y24" s="215"/>
+      <c r="Z24" s="216"/>
+      <c r="AA24" s="217"/>
+      <c r="AB24" s="218"/>
       <c r="AD24" s="162">
         <v>5</v>
       </c>
@@ -6581,15 +6581,15 @@
       <c r="A25" s="2"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="220"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="213"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="199"/>
+      <c r="K25" s="200"/>
+      <c r="L25" s="201"/>
       <c r="M25" s="63"/>
       <c r="N25" s="27"/>
       <c r="O25" s="64" t="s">
@@ -6600,14 +6600,14 @@
       <c r="R25" s="160"/>
       <c r="S25" s="161"/>
       <c r="T25" s="161"/>
-      <c r="W25" s="171" t="s">
+      <c r="W25" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="X25" s="172"/>
-      <c r="Y25" s="172"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="181"/>
-      <c r="AB25" s="182"/>
+      <c r="X25" s="215"/>
+      <c r="Y25" s="215"/>
+      <c r="Z25" s="216"/>
+      <c r="AA25" s="219"/>
+      <c r="AB25" s="220"/>
       <c r="AD25" s="159"/>
       <c r="AE25" s="159"/>
       <c r="AF25" s="159"/>
@@ -6618,8 +6618,8 @@
       </c>
       <c r="AK25" s="62"/>
       <c r="AL25" s="2"/>
-      <c r="AP25" s="174"/>
-      <c r="AQ25" s="175"/>
+      <c r="AP25" s="217"/>
+      <c r="AQ25" s="218"/>
       <c r="AR25" s="1" t="s">
         <v>51</v>
       </c>
@@ -6635,26 +6635,26 @@
       <c r="H26" s="170"/>
       <c r="I26" s="170"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="183" t="str">
+      <c r="K26" s="222" t="str">
         <f>IF(T8&gt;0,CONCATENATE("Suppose you sell your home at year 10 for $",ROUND(1.2*T8,0),". After you repay the remaining balance of your home, any money you have left over is called equity. The following questions help you compare the equity in your home after 10 years."),"Suppose you sell your home at year 10 for... (complete parts #3 and #4 before the remainder of this question will show up.)")</f>
         <v>Suppose you sell your home at year 10 for... (complete parts #3 and #4 before the remainder of this question will show up.)</v>
       </c>
-      <c r="L26" s="184"/>
-      <c r="M26" s="185"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="224"/>
       <c r="N26" s="27"/>
       <c r="P26" s="159"/>
       <c r="Q26" s="159"/>
       <c r="R26" s="160"/>
       <c r="S26" s="161"/>
       <c r="T26" s="161"/>
-      <c r="W26" s="171" t="s">
+      <c r="W26" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="X26" s="172"/>
-      <c r="Y26" s="172"/>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="192"/>
-      <c r="AB26" s="193"/>
+      <c r="X26" s="215"/>
+      <c r="Y26" s="215"/>
+      <c r="Z26" s="216"/>
+      <c r="AA26" s="230"/>
+      <c r="AB26" s="231"/>
       <c r="AD26" s="159"/>
       <c r="AE26" s="159"/>
       <c r="AF26" s="159"/>
@@ -6679,21 +6679,21 @@
       <c r="H27" s="170"/>
       <c r="I27" s="170"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="186"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="188"/>
+      <c r="K27" s="225"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="226"/>
       <c r="N27" s="27"/>
       <c r="P27" s="159"/>
       <c r="Q27" s="159"/>
       <c r="R27" s="160"/>
       <c r="S27" s="161"/>
       <c r="T27" s="161"/>
-      <c r="W27" s="178"/>
-      <c r="X27" s="179"/>
-      <c r="Y27" s="179"/>
-      <c r="Z27" s="179"/>
-      <c r="AA27" s="179"/>
-      <c r="AB27" s="180"/>
+      <c r="W27" s="232"/>
+      <c r="X27" s="233"/>
+      <c r="Y27" s="233"/>
+      <c r="Z27" s="233"/>
+      <c r="AA27" s="233"/>
+      <c r="AB27" s="234"/>
       <c r="AD27" s="159"/>
       <c r="AE27" s="159"/>
       <c r="AF27" s="159"/>
@@ -6719,9 +6719,9 @@
       <c r="H28" s="170"/>
       <c r="I28" s="170"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="186"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="188"/>
+      <c r="K28" s="225"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="226"/>
       <c r="N28" s="27"/>
       <c r="P28" s="159"/>
       <c r="Q28" s="159"/>
@@ -6750,23 +6750,23 @@
       <c r="H29" s="170"/>
       <c r="I29" s="170"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="189"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="191"/>
+      <c r="K29" s="227"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="229"/>
       <c r="N29" s="5"/>
       <c r="P29" s="159"/>
       <c r="Q29" s="159"/>
       <c r="R29" s="160"/>
       <c r="S29" s="161"/>
       <c r="T29" s="161"/>
-      <c r="W29" s="194" t="s">
+      <c r="W29" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="X29" s="194"/>
-      <c r="Y29" s="194"/>
-      <c r="Z29" s="194"/>
-      <c r="AA29" s="194"/>
-      <c r="AB29" s="194"/>
+      <c r="X29" s="221"/>
+      <c r="Y29" s="221"/>
+      <c r="Z29" s="221"/>
+      <c r="AA29" s="221"/>
+      <c r="AB29" s="221"/>
       <c r="AD29" s="159"/>
       <c r="AE29" s="159"/>
       <c r="AF29" s="159"/>
@@ -6789,10 +6789,10 @@
       <c r="H30" s="170"/>
       <c r="I30" s="170"/>
       <c r="J30" s="27"/>
-      <c r="K30" s="200" t="s">
+      <c r="K30" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="201"/>
+      <c r="L30" s="236"/>
       <c r="M30" s="59"/>
       <c r="N30" s="27"/>
       <c r="P30" s="159"/>
@@ -6800,12 +6800,12 @@
       <c r="R30" s="160"/>
       <c r="S30" s="161"/>
       <c r="T30" s="161"/>
-      <c r="W30" s="194"/>
-      <c r="X30" s="194"/>
-      <c r="Y30" s="194"/>
-      <c r="Z30" s="194"/>
-      <c r="AA30" s="194"/>
-      <c r="AB30" s="194"/>
+      <c r="W30" s="221"/>
+      <c r="X30" s="221"/>
+      <c r="Y30" s="221"/>
+      <c r="Z30" s="221"/>
+      <c r="AA30" s="221"/>
+      <c r="AB30" s="221"/>
       <c r="AD30" s="159"/>
       <c r="AE30" s="159"/>
       <c r="AF30" s="159"/>
@@ -6828,10 +6828,10 @@
       <c r="H31" s="170"/>
       <c r="I31" s="170"/>
       <c r="J31" s="27"/>
-      <c r="K31" s="196" t="s">
+      <c r="K31" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="197"/>
+      <c r="L31" s="199"/>
       <c r="M31" s="59"/>
       <c r="N31" s="27"/>
       <c r="P31" s="159"/>
@@ -6839,14 +6839,14 @@
       <c r="R31" s="160"/>
       <c r="S31" s="161"/>
       <c r="T31" s="161"/>
-      <c r="W31" s="171" t="s">
+      <c r="W31" s="214" t="s">
         <v>47</v>
       </c>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="172"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="175"/>
+      <c r="X31" s="215"/>
+      <c r="Y31" s="215"/>
+      <c r="Z31" s="216"/>
+      <c r="AA31" s="217"/>
+      <c r="AB31" s="218"/>
       <c r="AD31" s="159"/>
       <c r="AE31" s="159"/>
       <c r="AF31" s="159"/>
@@ -6866,10 +6866,10 @@
       <c r="H32" s="170"/>
       <c r="I32" s="170"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="196" t="s">
+      <c r="K32" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="197"/>
+      <c r="L32" s="199"/>
       <c r="M32" s="59"/>
       <c r="N32" s="27"/>
       <c r="P32" s="159"/>
@@ -6877,14 +6877,14 @@
       <c r="R32" s="160"/>
       <c r="S32" s="161"/>
       <c r="T32" s="161"/>
-      <c r="W32" s="171" t="s">
+      <c r="W32" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="X32" s="172"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="181"/>
-      <c r="AB32" s="182"/>
+      <c r="X32" s="215"/>
+      <c r="Y32" s="215"/>
+      <c r="Z32" s="216"/>
+      <c r="AA32" s="219"/>
+      <c r="AB32" s="220"/>
       <c r="AD32" s="159"/>
       <c r="AE32" s="159"/>
       <c r="AF32" s="159"/>
@@ -6904,10 +6904,10 @@
       <c r="H33" s="170"/>
       <c r="I33" s="170"/>
       <c r="J33" s="27"/>
-      <c r="K33" s="196" t="s">
+      <c r="K33" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="197"/>
+      <c r="L33" s="199"/>
       <c r="M33" s="59"/>
       <c r="N33" s="27"/>
       <c r="P33" s="159"/>
@@ -6915,14 +6915,14 @@
       <c r="R33" s="160"/>
       <c r="S33" s="161"/>
       <c r="T33" s="161"/>
-      <c r="W33" s="171" t="s">
+      <c r="W33" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="X33" s="172"/>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="173"/>
-      <c r="AA33" s="176"/>
-      <c r="AB33" s="177"/>
+      <c r="X33" s="215"/>
+      <c r="Y33" s="215"/>
+      <c r="Z33" s="216"/>
+      <c r="AA33" s="237"/>
+      <c r="AB33" s="238"/>
       <c r="AD33" s="159"/>
       <c r="AE33" s="159"/>
       <c r="AF33" s="159"/>
@@ -6942,8 +6942,8 @@
       <c r="H34" s="170"/>
       <c r="I34" s="170"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="199"/>
+      <c r="K34" s="200"/>
+      <c r="L34" s="201"/>
       <c r="M34" s="63"/>
       <c r="N34" s="27"/>
       <c r="P34" s="159"/>
@@ -6951,12 +6951,12 @@
       <c r="R34" s="160"/>
       <c r="S34" s="161"/>
       <c r="T34" s="161"/>
-      <c r="W34" s="178"/>
-      <c r="X34" s="179"/>
-      <c r="Y34" s="179"/>
-      <c r="Z34" s="179"/>
-      <c r="AA34" s="179"/>
-      <c r="AB34" s="180"/>
+      <c r="W34" s="232"/>
+      <c r="X34" s="233"/>
+      <c r="Y34" s="233"/>
+      <c r="Z34" s="233"/>
+      <c r="AA34" s="233"/>
+      <c r="AB34" s="234"/>
       <c r="AD34" s="159"/>
       <c r="AE34" s="159"/>
       <c r="AF34" s="159"/>
@@ -19799,18 +19799,43 @@
       <c r="AL437" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JWzM+l1+pZGZDNMFBzEQegsFN36lCHssV20yfK0zEAb1bl98iB96cIKqLzsQiFbZ/7ta/zbEXJFD8QRGCLpWiA==" saltValue="KDv0c3HDhekbpNqWGpNUww==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9yD7iUO/mi2j59xAf+HPQn5iby7W566y391mDRuffsyeYuINq2cSltgNZdjoKM6qnViqaVWDFR3XfHGhvSrZBg==" saltValue="5tClQDnTqn8s+p0CbQ3JvA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0" sort="0" autoFilter="0"/>
   <mergeCells count="59">
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="D7:I9"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="W34:AB34"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="K26:M29"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="W29:AB30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="W22:AB23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="D11:I12"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="D20:I25"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="P18:Q18"/>
@@ -19825,41 +19850,16 @@
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="AG7:AH9"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="D11:I12"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="D20:I25"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="W22:AB23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="K26:M29"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="W29:AB30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="W34:AB34"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="D7:I9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21 M23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -19956,22 +19956,22 @@
     <row r="2" spans="1:46" ht="33" customHeight="1">
       <c r="A2" s="69"/>
       <c r="B2" s="72"/>
-      <c r="C2" s="265" t="str">
+      <c r="C2" s="239" t="str">
         <f>'Student Work'!C2:O2</f>
         <v>MATH 108X - Home Loan Project</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="265"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
       <c r="P2" s="73"/>
       <c r="Q2" s="74"/>
       <c r="R2" s="74"/>
@@ -20008,20 +20008,20 @@
       <c r="A3" s="69"/>
       <c r="B3" s="72"/>
       <c r="C3" s="78"/>
-      <c r="D3" s="266" t="s">
+      <c r="D3" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
-      <c r="L3" s="268" t="s">
+      <c r="L3" s="249" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="268"/>
+      <c r="M3" s="249"/>
       <c r="N3" s="79">
         <f>COUNTIF(K7:AI380,"ERROR")</f>
         <v>76</v>
@@ -20065,21 +20065,21 @@
       <c r="C4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="250" t="s">
+      <c r="D4" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
-      <c r="I4" s="252"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="72"/>
       <c r="K4" s="72"/>
-      <c r="L4" s="269" t="s">
+      <c r="L4" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="269"/>
-      <c r="N4" s="270">
+      <c r="M4" s="250"/>
+      <c r="N4" s="251">
         <f>COUNTIF(K6:AI380,"Correct")</f>
         <v>0</v>
       </c>
@@ -20091,7 +20091,7 @@
       <c r="T4" s="84"/>
       <c r="U4" s="84"/>
       <c r="V4" s="84"/>
-      <c r="W4" s="259" t="s">
+      <c r="W4" s="247" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="85"/>
@@ -20114,17 +20114,17 @@
       <c r="A5" s="69"/>
       <c r="B5" s="72"/>
       <c r="C5" s="88"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="258"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="246"/>
       <c r="J5" s="72"/>
       <c r="K5" s="72"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="270"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="251"/>
       <c r="O5" s="73"/>
       <c r="P5" s="87"/>
       <c r="Q5" s="74"/>
@@ -20133,7 +20133,7 @@
       <c r="T5" s="87"/>
       <c r="U5" s="87"/>
       <c r="V5" s="87"/>
-      <c r="W5" s="259"/>
+      <c r="W5" s="247"/>
       <c r="X5" s="85"/>
       <c r="Y5" s="85"/>
       <c r="Z5" s="85"/>
@@ -20173,15 +20173,15 @@
       <c r="T6" s="87"/>
       <c r="U6" s="87"/>
       <c r="V6" s="87"/>
-      <c r="W6" s="267" t="s">
+      <c r="W6" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="267"/>
-      <c r="Y6" s="267"/>
-      <c r="Z6" s="267"/>
-      <c r="AA6" s="267"/>
-      <c r="AB6" s="267"/>
-      <c r="AC6" s="267"/>
+      <c r="X6" s="248"/>
+      <c r="Y6" s="248"/>
+      <c r="Z6" s="248"/>
+      <c r="AA6" s="248"/>
+      <c r="AB6" s="248"/>
+      <c r="AC6" s="248"/>
       <c r="AD6" s="87"/>
       <c r="AE6" s="87"/>
       <c r="AF6" s="87"/>
@@ -20198,14 +20198,14 @@
       <c r="C7" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="250" t="s">
+      <c r="D7" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="252"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="72"/>
       <c r="K7" s="72"/>
       <c r="L7" s="72"/>
@@ -20213,10 +20213,10 @@
       <c r="N7" s="72"/>
       <c r="O7" s="73"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="264" t="s">
+      <c r="Q7" s="255" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="264"/>
+      <c r="R7" s="255"/>
       <c r="S7" s="91"/>
       <c r="T7" s="87"/>
       <c r="U7" s="87"/>
@@ -20224,27 +20224,27 @@
       <c r="W7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="243" t="str">
+      <c r="X7" s="256" t="str">
         <f>IF(ISBLANK('Student Work'!X7:Y7),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="Y7" s="243"/>
+      <c r="Y7" s="256"/>
       <c r="Z7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="AA7" s="243" t="str">
+      <c r="AA7" s="256" t="str">
         <f>IF(ISBLANK('Student Work'!AA7:AB7),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB7" s="243"/>
+      <c r="AB7" s="256"/>
       <c r="AC7" s="93"/>
       <c r="AD7" s="87"/>
       <c r="AE7" s="87"/>
       <c r="AF7" s="87"/>
-      <c r="AG7" s="264" t="s">
+      <c r="AG7" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="AH7" s="264"/>
+      <c r="AH7" s="255"/>
       <c r="AI7" s="87"/>
       <c r="AJ7" s="87"/>
       <c r="AK7" s="87"/>
@@ -20254,23 +20254,23 @@
       <c r="A8" s="69"/>
       <c r="B8" s="72"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="255"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="254"/>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
       <c r="M8" s="72"/>
       <c r="N8" s="72"/>
-      <c r="O8" s="260" t="s">
+      <c r="O8" s="257" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="87"/>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="264"/>
+      <c r="Q8" s="255"/>
+      <c r="R8" s="255"/>
       <c r="S8" s="95" t="s">
         <v>12</v>
       </c>
@@ -20283,19 +20283,19 @@
       <c r="W8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="243" t="str">
+      <c r="X8" s="256" t="str">
         <f>IF(ISBLANK('Student Work'!X8:Y8),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="Y8" s="243"/>
+      <c r="Y8" s="256"/>
       <c r="Z8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="243" t="str">
+      <c r="AA8" s="256" t="str">
         <f>IF(ISBLANK('Student Work'!AA8:AB8),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB8" s="243"/>
+      <c r="AB8" s="256"/>
       <c r="AC8" s="97"/>
       <c r="AD8" s="98"/>
       <c r="AE8" s="99" t="str">
@@ -20305,10 +20305,10 @@
       <c r="AF8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="264"/>
-      <c r="AH8" s="264"/>
+      <c r="AG8" s="255"/>
+      <c r="AH8" s="255"/>
       <c r="AI8" s="87"/>
-      <c r="AJ8" s="260" t="s">
+      <c r="AJ8" s="257" t="s">
         <v>15</v>
       </c>
       <c r="AK8" s="87"/>
@@ -20318,21 +20318,21 @@
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="258"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="246"/>
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
       <c r="L9" s="101"/>
       <c r="M9" s="101"/>
       <c r="N9" s="101"/>
-      <c r="O9" s="260"/>
+      <c r="O9" s="257"/>
       <c r="P9" s="87"/>
-      <c r="Q9" s="264"/>
-      <c r="R9" s="264"/>
+      <c r="Q9" s="255"/>
+      <c r="R9" s="255"/>
       <c r="S9" s="95" t="s">
         <v>20</v>
       </c>
@@ -20344,19 +20344,19 @@
       <c r="W9" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="243" t="str">
+      <c r="X9" s="256" t="str">
         <f>IF(ISBLANK('Student Work'!X9:Y9),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="Y9" s="243"/>
+      <c r="Y9" s="256"/>
       <c r="Z9" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="243" t="str">
+      <c r="AA9" s="256" t="str">
         <f>IF(ISBLANK('Student Work'!AA9:AB9),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB9" s="243"/>
+      <c r="AB9" s="256"/>
       <c r="AC9" s="97"/>
       <c r="AD9" s="98"/>
       <c r="AE9" s="153" t="s">
@@ -20365,10 +20365,10 @@
       <c r="AF9" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="AG9" s="264"/>
-      <c r="AH9" s="264"/>
+      <c r="AG9" s="255"/>
+      <c r="AH9" s="255"/>
       <c r="AI9" s="87"/>
-      <c r="AJ9" s="260"/>
+      <c r="AJ9" s="257"/>
       <c r="AK9" s="87"/>
       <c r="AL9" s="70"/>
     </row>
@@ -20389,8 +20389,8 @@
       <c r="N10" s="101"/>
       <c r="O10" s="105"/>
       <c r="P10" s="87"/>
-      <c r="Q10" s="261"/>
-      <c r="R10" s="261"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="258"/>
       <c r="S10" s="95" t="s">
         <v>16</v>
       </c>
@@ -20400,13 +20400,13 @@
       </c>
       <c r="U10" s="87"/>
       <c r="V10" s="87"/>
-      <c r="W10" s="262"/>
-      <c r="X10" s="262"/>
-      <c r="Y10" s="262"/>
-      <c r="Z10" s="262"/>
-      <c r="AA10" s="262"/>
-      <c r="AB10" s="262"/>
-      <c r="AC10" s="262"/>
+      <c r="W10" s="259"/>
+      <c r="X10" s="259"/>
+      <c r="Y10" s="259"/>
+      <c r="Z10" s="259"/>
+      <c r="AA10" s="259"/>
+      <c r="AB10" s="259"/>
+      <c r="AC10" s="259"/>
       <c r="AD10" s="98"/>
       <c r="AE10" s="102" t="str">
         <f>IF(ISBLANK('Student Work'!AE10),"ERROR",IF('Student Work'!AE10=SUM('Student Work'!AA32:AB32),"Correct","ERROR"))</f>
@@ -20415,8 +20415,8 @@
       <c r="AF10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AG10" s="263"/>
-      <c r="AH10" s="263"/>
+      <c r="AG10" s="260"/>
+      <c r="AH10" s="260"/>
       <c r="AI10" s="106"/>
       <c r="AJ10" s="87"/>
       <c r="AK10" s="87"/>
@@ -20428,14 +20428,14 @@
       <c r="C11" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="250" t="s">
+      <c r="D11" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="252"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="243"/>
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
       <c r="L11" s="101"/>
@@ -20443,8 +20443,8 @@
       <c r="N11" s="101"/>
       <c r="O11" s="105"/>
       <c r="P11" s="106"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="261"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="258"/>
       <c r="S11" s="95" t="s">
         <v>23</v>
       </c>
@@ -20454,13 +20454,13 @@
       </c>
       <c r="U11" s="87"/>
       <c r="V11" s="87"/>
-      <c r="W11" s="262"/>
-      <c r="X11" s="262"/>
-      <c r="Y11" s="262"/>
-      <c r="Z11" s="262"/>
-      <c r="AA11" s="262"/>
-      <c r="AB11" s="262"/>
-      <c r="AC11" s="262"/>
+      <c r="W11" s="259"/>
+      <c r="X11" s="259"/>
+      <c r="Y11" s="259"/>
+      <c r="Z11" s="259"/>
+      <c r="AA11" s="259"/>
+      <c r="AB11" s="259"/>
+      <c r="AC11" s="259"/>
       <c r="AD11" s="98"/>
       <c r="AE11" s="102" t="str">
         <f>IF(AND(NOT(ISBLANK('Student Work'!AE11)),ABS('Student Work'!AE11-('Student Work'!AE8-'Student Work'!AE9+'Student Work'!AE10))&lt;0.01),"Correct","ERROR")</f>
@@ -20469,8 +20469,8 @@
       <c r="AF11" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="AG11" s="263"/>
-      <c r="AH11" s="263"/>
+      <c r="AG11" s="260"/>
+      <c r="AH11" s="260"/>
       <c r="AI11" s="106"/>
       <c r="AJ11" s="87"/>
       <c r="AK11" s="87"/>
@@ -20480,12 +20480,12 @@
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
       <c r="C12" s="107"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="257"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="258"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="245"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="246"/>
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
       <c r="L12" s="101"/>
@@ -20493,8 +20493,8 @@
       <c r="N12" s="101"/>
       <c r="O12" s="105"/>
       <c r="P12" s="106"/>
-      <c r="Q12" s="261"/>
-      <c r="R12" s="261"/>
+      <c r="Q12" s="258"/>
+      <c r="R12" s="258"/>
       <c r="S12" s="95" t="s">
         <v>24</v>
       </c>
@@ -20504,13 +20504,13 @@
       </c>
       <c r="U12" s="87"/>
       <c r="V12" s="87"/>
-      <c r="W12" s="262"/>
-      <c r="X12" s="262"/>
-      <c r="Y12" s="262"/>
-      <c r="Z12" s="262"/>
-      <c r="AA12" s="262"/>
-      <c r="AB12" s="262"/>
-      <c r="AC12" s="262"/>
+      <c r="W12" s="259"/>
+      <c r="X12" s="259"/>
+      <c r="Y12" s="259"/>
+      <c r="Z12" s="259"/>
+      <c r="AA12" s="259"/>
+      <c r="AB12" s="259"/>
+      <c r="AC12" s="259"/>
       <c r="AD12" s="98"/>
       <c r="AE12" s="108" t="str">
         <f>IF(AND(NOT(ISBLANK('Student Work'!AE12)),'Student Work'!AE12=SUM('Student Work'!AA33:AB33)),"Correct","ERROR")</f>
@@ -20519,8 +20519,8 @@
       <c r="AF12" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AG12" s="263"/>
-      <c r="AH12" s="263"/>
+      <c r="AG12" s="260"/>
+      <c r="AH12" s="260"/>
       <c r="AI12" s="106"/>
       <c r="AJ12" s="87"/>
       <c r="AK12" s="87"/>
@@ -20554,13 +20554,13 @@
       </c>
       <c r="U13" s="87"/>
       <c r="V13" s="87"/>
-      <c r="W13" s="262"/>
-      <c r="X13" s="262"/>
-      <c r="Y13" s="262"/>
-      <c r="Z13" s="262"/>
-      <c r="AA13" s="262"/>
-      <c r="AB13" s="262"/>
-      <c r="AC13" s="262"/>
+      <c r="W13" s="259"/>
+      <c r="X13" s="259"/>
+      <c r="Y13" s="259"/>
+      <c r="Z13" s="259"/>
+      <c r="AA13" s="259"/>
+      <c r="AB13" s="259"/>
+      <c r="AC13" s="259"/>
       <c r="AD13" s="98"/>
       <c r="AE13" s="110" t="str">
         <f>IF(AND(NOT(ISBLANK('Student Work'!AE13)),'Student Work'!AE13=360),"Correct","ERROR")</f>
@@ -20582,14 +20582,14 @@
       <c r="C14" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="250" t="s">
+      <c r="D14" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="252"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="243"/>
       <c r="J14" s="101"/>
       <c r="K14" s="101"/>
       <c r="L14" s="101"/>
@@ -20608,13 +20608,13 @@
       </c>
       <c r="U14" s="112"/>
       <c r="V14" s="112"/>
-      <c r="W14" s="262"/>
-      <c r="X14" s="262"/>
-      <c r="Y14" s="262"/>
-      <c r="Z14" s="262"/>
-      <c r="AA14" s="262"/>
-      <c r="AB14" s="262"/>
-      <c r="AC14" s="262"/>
+      <c r="W14" s="259"/>
+      <c r="X14" s="259"/>
+      <c r="Y14" s="259"/>
+      <c r="Z14" s="259"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="259"/>
+      <c r="AC14" s="259"/>
       <c r="AD14" s="98"/>
       <c r="AE14" s="111" t="str">
         <f>IF(ISBLANK('Student Work'!AE14),"ERROR",IF(ABS('Student Work'!AE14-PMT('Student Work'!AE12/12,'Student Work'!AE13,-'Student Work'!AE11))&lt;0.01,"Correct","ERROR"))</f>
@@ -20634,12 +20634,12 @@
       <c r="A15" s="100"/>
       <c r="B15" s="101"/>
       <c r="C15" s="113"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="258"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
       <c r="L15" s="101"/>
@@ -20658,13 +20658,13 @@
       </c>
       <c r="U15" s="112"/>
       <c r="V15" s="112"/>
-      <c r="W15" s="262"/>
-      <c r="X15" s="262"/>
-      <c r="Y15" s="262"/>
-      <c r="Z15" s="262"/>
-      <c r="AA15" s="262"/>
-      <c r="AB15" s="262"/>
-      <c r="AC15" s="262"/>
+      <c r="W15" s="259"/>
+      <c r="X15" s="259"/>
+      <c r="Y15" s="259"/>
+      <c r="Z15" s="259"/>
+      <c r="AA15" s="259"/>
+      <c r="AB15" s="259"/>
+      <c r="AC15" s="259"/>
       <c r="AD15" s="98"/>
       <c r="AE15" s="103" t="str">
         <f>IF(ISBLANK('Student Work'!AE15),"ERROR",IF(ABS('Student Work'!AE15-'Student Work'!AE14*'Student Work'!AE13)&lt;1,"Correct","ERROR"))</f>
@@ -20708,13 +20708,13 @@
       </c>
       <c r="U16" s="87"/>
       <c r="V16" s="87"/>
-      <c r="W16" s="262"/>
-      <c r="X16" s="262"/>
-      <c r="Y16" s="262"/>
-      <c r="Z16" s="262"/>
-      <c r="AA16" s="262"/>
-      <c r="AB16" s="262"/>
-      <c r="AC16" s="262"/>
+      <c r="W16" s="259"/>
+      <c r="X16" s="259"/>
+      <c r="Y16" s="259"/>
+      <c r="Z16" s="259"/>
+      <c r="AA16" s="259"/>
+      <c r="AB16" s="259"/>
+      <c r="AC16" s="259"/>
       <c r="AD16" s="98"/>
       <c r="AE16" s="114" t="str">
         <f>IF(ISBLANK('Student Work'!AE16),"ERROR",IF(ABS('Student Work'!AE16-('Student Work'!AE15-'Student Work'!AE11))&lt;1,"Correct","ERROR"))</f>
@@ -20736,16 +20736,16 @@
       <c r="C17" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="250" t="s">
+      <c r="D17" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="252"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="243"/>
       <c r="J17" s="101"/>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="257" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="101"/>
@@ -20754,9 +20754,9 @@
       <c r="O17" s="87"/>
       <c r="P17" s="87"/>
       <c r="Q17" s="87"/>
-      <c r="R17" s="241"/>
-      <c r="S17" s="241"/>
-      <c r="T17" s="241"/>
+      <c r="R17" s="270"/>
+      <c r="S17" s="270"/>
+      <c r="T17" s="270"/>
       <c r="U17" s="87"/>
       <c r="V17" s="98"/>
       <c r="W17" s="98"/>
@@ -20769,9 +20769,9 @@
       <c r="AD17" s="98"/>
       <c r="AE17" s="115"/>
       <c r="AF17" s="116"/>
-      <c r="AG17" s="241"/>
-      <c r="AH17" s="241"/>
-      <c r="AI17" s="241"/>
+      <c r="AG17" s="270"/>
+      <c r="AH17" s="270"/>
+      <c r="AI17" s="270"/>
       <c r="AJ17" s="87"/>
       <c r="AK17" s="87"/>
       <c r="AL17" s="70"/>
@@ -20780,20 +20780,20 @@
       <c r="A18" s="100"/>
       <c r="B18" s="101"/>
       <c r="C18" s="109"/>
-      <c r="D18" s="256"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="258"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="245"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="245"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="246"/>
       <c r="J18" s="101"/>
-      <c r="K18" s="260"/>
+      <c r="K18" s="257"/>
       <c r="L18" s="101"/>
       <c r="M18" s="101"/>
       <c r="N18" s="101"/>
       <c r="O18" s="87"/>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="239"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
       <c r="R18" s="117" t="s">
         <v>34</v>
       </c>
@@ -20814,8 +20814,8 @@
       </c>
       <c r="AB18" s="87"/>
       <c r="AC18" s="87"/>
-      <c r="AD18" s="239"/>
-      <c r="AE18" s="239"/>
+      <c r="AD18" s="261"/>
+      <c r="AE18" s="261"/>
       <c r="AF18" s="117" t="s">
         <v>34</v>
       </c>
@@ -20840,11 +20840,11 @@
       <c r="H19" s="120"/>
       <c r="I19" s="120"/>
       <c r="J19" s="101"/>
-      <c r="K19" s="240" t="s">
+      <c r="K19" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="240"/>
-      <c r="M19" s="240"/>
+      <c r="L19" s="269"/>
+      <c r="M19" s="269"/>
       <c r="N19" s="101"/>
       <c r="O19" s="87"/>
       <c r="P19" s="121" t="s">
@@ -20900,14 +20900,14 @@
       <c r="C20" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="250" t="s">
+      <c r="D20" s="241" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="252"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="243"/>
       <c r="J20" s="101"/>
       <c r="K20" s="124"/>
       <c r="L20" s="124"/>
@@ -20935,7 +20935,7 @@
       </c>
       <c r="U20" s="87"/>
       <c r="V20" s="87"/>
-      <c r="W20" s="259" t="s">
+      <c r="W20" s="247" t="s">
         <v>5</v>
       </c>
       <c r="X20" s="87"/>
@@ -20975,17 +20975,17 @@
       <c r="A21" s="100"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="254"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="255"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
+      <c r="H21" s="253"/>
+      <c r="I21" s="254"/>
       <c r="J21" s="101"/>
-      <c r="K21" s="244" t="s">
+      <c r="K21" s="262" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="244"/>
+      <c r="L21" s="262"/>
       <c r="M21" s="131" t="str">
         <f>IF('Student Work'!M21="15-year Mortgage","Correct","ERROR")</f>
         <v>ERROR</v>
@@ -21013,7 +21013,7 @@
       </c>
       <c r="U21" s="87"/>
       <c r="V21" s="87"/>
-      <c r="W21" s="259"/>
+      <c r="W21" s="247"/>
       <c r="X21" s="87"/>
       <c r="Y21" s="87"/>
       <c r="Z21" s="87"/>
@@ -21051,17 +21051,17 @@
       <c r="A22" s="100"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
-      <c r="D22" s="253"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="254"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="255"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="254"/>
       <c r="J22" s="101"/>
-      <c r="K22" s="244" t="s">
+      <c r="K22" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="244"/>
+      <c r="L22" s="262"/>
       <c r="M22" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M22),"ERROR",IF(ABS('Student Work'!M22-('Student Work'!T14-'Student Work'!AE14))&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21089,14 +21089,14 @@
       </c>
       <c r="U22" s="87"/>
       <c r="V22" s="87"/>
-      <c r="W22" s="245" t="s">
+      <c r="W22" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="X22" s="245"/>
-      <c r="Y22" s="245"/>
-      <c r="Z22" s="245"/>
-      <c r="AA22" s="245"/>
-      <c r="AB22" s="245"/>
+      <c r="X22" s="263"/>
+      <c r="Y22" s="263"/>
+      <c r="Z22" s="263"/>
+      <c r="AA22" s="263"/>
+      <c r="AB22" s="263"/>
       <c r="AC22" s="87"/>
       <c r="AD22" s="129">
         <v>3</v>
@@ -21126,17 +21126,17 @@
       <c r="A23" s="100"/>
       <c r="B23" s="101"/>
       <c r="C23" s="101"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="255"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="254"/>
       <c r="J23" s="101"/>
-      <c r="K23" s="244" t="s">
+      <c r="K23" s="262" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="244"/>
+      <c r="L23" s="262"/>
       <c r="M23" s="131" t="str">
         <f>IF('Student Work'!M23="30-year Mortgage","Correct","ERROR")</f>
         <v>ERROR</v>
@@ -21164,12 +21164,12 @@
       </c>
       <c r="U23" s="87"/>
       <c r="V23" s="87"/>
-      <c r="W23" s="246"/>
-      <c r="X23" s="246"/>
-      <c r="Y23" s="246"/>
-      <c r="Z23" s="246"/>
-      <c r="AA23" s="246"/>
-      <c r="AB23" s="246"/>
+      <c r="W23" s="264"/>
+      <c r="X23" s="264"/>
+      <c r="Y23" s="264"/>
+      <c r="Z23" s="264"/>
+      <c r="AA23" s="264"/>
+      <c r="AB23" s="264"/>
       <c r="AC23" s="87"/>
       <c r="AD23" s="129">
         <v>4</v>
@@ -21199,17 +21199,17 @@
       <c r="A24" s="100"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
-      <c r="D24" s="253"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="254"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="255"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="253"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="254"/>
       <c r="J24" s="101"/>
-      <c r="K24" s="244" t="s">
+      <c r="K24" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="244"/>
+      <c r="L24" s="262"/>
       <c r="M24" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M24),"ERROR",IF(ABS('Student Work'!M24-('Student Work'!AE16-'Student Work'!T16))&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21237,17 +21237,17 @@
       </c>
       <c r="U24" s="87"/>
       <c r="V24" s="87"/>
-      <c r="W24" s="242" t="s">
+      <c r="W24" s="265" t="s">
         <v>47</v>
       </c>
-      <c r="X24" s="242"/>
-      <c r="Y24" s="242"/>
-      <c r="Z24" s="242"/>
-      <c r="AA24" s="243" t="str">
+      <c r="X24" s="265"/>
+      <c r="Y24" s="265"/>
+      <c r="Z24" s="265"/>
+      <c r="AA24" s="256" t="str">
         <f>IF(OR('Student Work'!AA24="Bank 1",'Student Work'!AA24="Bank 2",'Student Work'!AA24="Use my own bank."),"Correct","ERROR")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB24" s="243"/>
+      <c r="AB24" s="256"/>
       <c r="AC24" s="87"/>
       <c r="AD24" s="129">
         <v>5</v>
@@ -21277,15 +21277,15 @@
       <c r="A25" s="100"/>
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="257"/>
-      <c r="F25" s="257"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="257"/>
-      <c r="I25" s="258"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="245"/>
+      <c r="I25" s="246"/>
       <c r="J25" s="101"/>
-      <c r="K25" s="244"/>
-      <c r="L25" s="244"/>
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
       <c r="M25" s="135"/>
       <c r="N25" s="101"/>
       <c r="O25" s="136" t="s">
@@ -21313,17 +21313,17 @@
       </c>
       <c r="U25" s="87"/>
       <c r="V25" s="87"/>
-      <c r="W25" s="242" t="s">
+      <c r="W25" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="X25" s="242"/>
-      <c r="Y25" s="242"/>
-      <c r="Z25" s="242"/>
-      <c r="AA25" s="243" t="str">
+      <c r="X25" s="265"/>
+      <c r="Y25" s="265"/>
+      <c r="Z25" s="265"/>
+      <c r="AA25" s="256" t="str">
         <f>IF(AND('Student Work'!AA24="Bank 1",'Student Work'!AA25=1400),"Correct",IF(AND('Student Work'!AA24="Bank 2",'Student Work'!AA25=300),"Correct",IF(AND('Student Work'!AA24="Use my own bank.",'Student Work'!AA25&gt;0),"Correct","ERROR")))</f>
         <v>ERROR</v>
       </c>
-      <c r="AB25" s="243"/>
+      <c r="AB25" s="256"/>
       <c r="AC25" s="87"/>
       <c r="AD25" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD24+1&lt;='Student Work'!$AE$13,AD24&lt;&gt;0),AD24+1,IF('Student Work'!AD25&gt;0,"ERROR",0)),0)</f>
@@ -21351,8 +21351,8 @@
       <c r="AJ25" s="134"/>
       <c r="AK25" s="134"/>
       <c r="AL25" s="70"/>
-      <c r="AP25" s="248"/>
-      <c r="AQ25" s="248"/>
+      <c r="AP25" s="266"/>
+      <c r="AQ25" s="266"/>
     </row>
     <row r="26" spans="1:43" ht="16.149999999999999" customHeight="1">
       <c r="A26" s="69"/>
@@ -21365,11 +21365,11 @@
       <c r="H26" s="140"/>
       <c r="I26" s="140"/>
       <c r="J26" s="72"/>
-      <c r="K26" s="249" t="s">
+      <c r="K26" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="249"/>
-      <c r="M26" s="249"/>
+      <c r="L26" s="267"/>
+      <c r="M26" s="267"/>
       <c r="N26" s="101"/>
       <c r="O26" s="87"/>
       <c r="P26" s="137">
@@ -21394,17 +21394,17 @@
       </c>
       <c r="U26" s="87"/>
       <c r="V26" s="87"/>
-      <c r="W26" s="242" t="s">
+      <c r="W26" s="265" t="s">
         <v>54</v>
       </c>
-      <c r="X26" s="242"/>
-      <c r="Y26" s="242"/>
-      <c r="Z26" s="242"/>
-      <c r="AA26" s="243" t="str">
+      <c r="X26" s="265"/>
+      <c r="Y26" s="265"/>
+      <c r="Z26" s="265"/>
+      <c r="AA26" s="256" t="str">
         <f>IF(AND('Student Work'!AA24="Bank 1",'Student Work'!AA26=3.89%),"Correct",IF(AND('Student Work'!AA24="Bank 2",'Student Work'!AA26=3.55%),"Correct",IF(AND('Student Work'!AA24="Use my own bank.",'Student Work'!AA26&gt;0,'Student Work'!AA26&lt;0.2),"Correct","ERROR")))</f>
         <v>ERROR</v>
       </c>
-      <c r="AB26" s="243"/>
+      <c r="AB26" s="256"/>
       <c r="AC26" s="87"/>
       <c r="AD26" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD25+1&lt;='Student Work'!$AE$13,AD25&lt;&gt;0),AD25+1,IF('Student Work'!AD26&gt;0,"ERROR",0)),0)</f>
@@ -21445,9 +21445,9 @@
       <c r="H27" s="140"/>
       <c r="I27" s="140"/>
       <c r="J27" s="72"/>
-      <c r="K27" s="249"/>
-      <c r="L27" s="249"/>
-      <c r="M27" s="249"/>
+      <c r="K27" s="267"/>
+      <c r="L27" s="267"/>
+      <c r="M27" s="267"/>
       <c r="N27" s="101"/>
       <c r="O27" s="87"/>
       <c r="P27" s="137">
@@ -21472,12 +21472,12 @@
       </c>
       <c r="U27" s="87"/>
       <c r="V27" s="87"/>
-      <c r="W27" s="247"/>
-      <c r="X27" s="247"/>
-      <c r="Y27" s="247"/>
-      <c r="Z27" s="247"/>
-      <c r="AA27" s="247"/>
-      <c r="AB27" s="247"/>
+      <c r="W27" s="268"/>
+      <c r="X27" s="268"/>
+      <c r="Y27" s="268"/>
+      <c r="Z27" s="268"/>
+      <c r="AA27" s="268"/>
+      <c r="AB27" s="268"/>
       <c r="AC27" s="87"/>
       <c r="AD27" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD26+1&lt;='Student Work'!$AE$13,AD26&lt;&gt;0),AD26+1,IF('Student Work'!AD27&gt;0,"ERROR",0)),0)</f>
@@ -21518,9 +21518,9 @@
       <c r="H28" s="140"/>
       <c r="I28" s="140"/>
       <c r="J28" s="72"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="249"/>
-      <c r="M28" s="249"/>
+      <c r="K28" s="267"/>
+      <c r="L28" s="267"/>
+      <c r="M28" s="267"/>
       <c r="N28" s="101"/>
       <c r="O28" s="87"/>
       <c r="P28" s="137">
@@ -21591,9 +21591,9 @@
       <c r="H29" s="140"/>
       <c r="I29" s="140"/>
       <c r="J29" s="72"/>
-      <c r="K29" s="249"/>
-      <c r="L29" s="249"/>
-      <c r="M29" s="249"/>
+      <c r="K29" s="267"/>
+      <c r="L29" s="267"/>
+      <c r="M29" s="267"/>
       <c r="N29" s="72"/>
       <c r="O29" s="87"/>
       <c r="P29" s="137">
@@ -21618,14 +21618,14 @@
       </c>
       <c r="U29" s="87"/>
       <c r="V29" s="87"/>
-      <c r="W29" s="245" t="s">
+      <c r="W29" s="263" t="s">
         <v>59</v>
       </c>
-      <c r="X29" s="245"/>
-      <c r="Y29" s="245"/>
-      <c r="Z29" s="245"/>
-      <c r="AA29" s="245"/>
-      <c r="AB29" s="245"/>
+      <c r="X29" s="263"/>
+      <c r="Y29" s="263"/>
+      <c r="Z29" s="263"/>
+      <c r="AA29" s="263"/>
+      <c r="AB29" s="263"/>
       <c r="AC29" s="87"/>
       <c r="AD29" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD28+1&lt;='Student Work'!$AE$13,AD28&lt;&gt;0),AD28+1,IF('Student Work'!AD29&gt;0,"ERROR",0)),0)</f>
@@ -21666,10 +21666,10 @@
       <c r="H30" s="140"/>
       <c r="I30" s="140"/>
       <c r="J30" s="101"/>
-      <c r="K30" s="244" t="s">
+      <c r="K30" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="244"/>
+      <c r="L30" s="262"/>
       <c r="M30" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M30),"ERROR",IF(ABS('Student Work'!T139-'Student Work'!M30)&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21698,12 +21698,12 @@
       </c>
       <c r="U30" s="87"/>
       <c r="V30" s="87"/>
-      <c r="W30" s="246"/>
-      <c r="X30" s="246"/>
-      <c r="Y30" s="246"/>
-      <c r="Z30" s="246"/>
-      <c r="AA30" s="246"/>
-      <c r="AB30" s="246"/>
+      <c r="W30" s="264"/>
+      <c r="X30" s="264"/>
+      <c r="Y30" s="264"/>
+      <c r="Z30" s="264"/>
+      <c r="AA30" s="264"/>
+      <c r="AB30" s="264"/>
       <c r="AC30" s="87"/>
       <c r="AD30" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD29+1&lt;='Student Work'!$AE$13,AD29&lt;&gt;0),AD29+1,IF('Student Work'!AD30&gt;0,"ERROR",0)),0)</f>
@@ -21744,10 +21744,10 @@
       <c r="H31" s="140"/>
       <c r="I31" s="140"/>
       <c r="J31" s="101"/>
-      <c r="K31" s="244" t="s">
+      <c r="K31" s="262" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="244"/>
+      <c r="L31" s="262"/>
       <c r="M31" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M31),"ERROR",IF(ABS('Student Work'!AH139-'Student Work'!M31)&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21776,17 +21776,17 @@
       </c>
       <c r="U31" s="87"/>
       <c r="V31" s="87"/>
-      <c r="W31" s="242" t="s">
+      <c r="W31" s="265" t="s">
         <v>47</v>
       </c>
-      <c r="X31" s="242"/>
-      <c r="Y31" s="242"/>
-      <c r="Z31" s="242"/>
-      <c r="AA31" s="243" t="str">
+      <c r="X31" s="265"/>
+      <c r="Y31" s="265"/>
+      <c r="Z31" s="265"/>
+      <c r="AA31" s="256" t="str">
         <f>IF(OR('Student Work'!AA31="Bank 1",'Student Work'!AA31="Bank 2",'Student Work'!AA31="Use my own bank."),"Correct","ERROR")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB31" s="243"/>
+      <c r="AB31" s="256"/>
       <c r="AC31" s="87"/>
       <c r="AD31" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD30+1&lt;='Student Work'!$AE$13,AD30&lt;&gt;0),AD30+1,IF('Student Work'!AD31&gt;0,"ERROR",0)),0)</f>
@@ -21827,10 +21827,10 @@
       <c r="H32" s="140"/>
       <c r="I32" s="140"/>
       <c r="J32" s="101"/>
-      <c r="K32" s="244" t="s">
+      <c r="K32" s="262" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="244"/>
+      <c r="L32" s="262"/>
       <c r="M32" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M32),"ERROR",IF(ABS('Student Work'!M32-ROUND(1.2*'Student Work'!T8,0)+'Student Work'!M30)&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21859,17 +21859,17 @@
       </c>
       <c r="U32" s="87"/>
       <c r="V32" s="87"/>
-      <c r="W32" s="242" t="s">
+      <c r="W32" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="X32" s="242"/>
-      <c r="Y32" s="242"/>
-      <c r="Z32" s="242"/>
-      <c r="AA32" s="243" t="str">
+      <c r="X32" s="265"/>
+      <c r="Y32" s="265"/>
+      <c r="Z32" s="265"/>
+      <c r="AA32" s="256" t="str">
         <f>IF(AND('Student Work'!AA31="Bank 1",'Student Work'!AA32=1700),"Correct",IF(AND('Student Work'!AA31="Bank 2",'Student Work'!AA32=500),"Correct",IF(AND('Student Work'!AA31="Use my own bank.",'Student Work'!AA32&gt;0),"Correct","ERROR")))</f>
         <v>ERROR</v>
       </c>
-      <c r="AB32" s="243"/>
+      <c r="AB32" s="256"/>
       <c r="AC32" s="87"/>
       <c r="AD32" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD31+1&lt;='Student Work'!$AE$13,AD31&lt;&gt;0),AD31+1,IF('Student Work'!AD32&gt;0,"ERROR",0)),0)</f>
@@ -21910,10 +21910,10 @@
       <c r="H33" s="140"/>
       <c r="I33" s="140"/>
       <c r="J33" s="101"/>
-      <c r="K33" s="244" t="s">
+      <c r="K33" s="262" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="244"/>
+      <c r="L33" s="262"/>
       <c r="M33" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M33),"ERROR",IF(ABS('Student Work'!M33-ROUND(1.2*'Student Work'!T8,0)+'Student Work'!M31)&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21942,17 +21942,17 @@
       </c>
       <c r="U33" s="87"/>
       <c r="V33" s="87"/>
-      <c r="W33" s="242" t="s">
+      <c r="W33" s="265" t="s">
         <v>54</v>
       </c>
-      <c r="X33" s="242"/>
-      <c r="Y33" s="242"/>
-      <c r="Z33" s="242"/>
-      <c r="AA33" s="243" t="str">
+      <c r="X33" s="265"/>
+      <c r="Y33" s="265"/>
+      <c r="Z33" s="265"/>
+      <c r="AA33" s="256" t="str">
         <f>IF(AND('Student Work'!AA31="Bank 1",'Student Work'!AA33=4.59%),"Correct",IF(AND('Student Work'!AA31="Bank 2",'Student Work'!AA33=4.35%),"Correct",IF(AND('Student Work'!AA31="Use my own bank.",'Student Work'!AA33&gt;0,'Student Work'!AA33&lt;0.2),"Correct","ERROR")))</f>
         <v>ERROR</v>
       </c>
-      <c r="AB33" s="243"/>
+      <c r="AB33" s="256"/>
       <c r="AC33" s="87"/>
       <c r="AD33" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD32+1&lt;='Student Work'!$AE$13,AD32&lt;&gt;0),AD32+1,IF('Student Work'!AD33&gt;0,"ERROR",0)),0)</f>
@@ -21993,8 +21993,8 @@
       <c r="H34" s="140"/>
       <c r="I34" s="140"/>
       <c r="J34" s="101"/>
-      <c r="K34" s="244"/>
-      <c r="L34" s="244"/>
+      <c r="K34" s="262"/>
+      <c r="L34" s="262"/>
       <c r="M34" s="135"/>
       <c r="N34" s="101"/>
       <c r="O34" s="87"/>
@@ -22020,12 +22020,12 @@
       </c>
       <c r="U34" s="87"/>
       <c r="V34" s="87"/>
-      <c r="W34" s="247"/>
-      <c r="X34" s="247"/>
-      <c r="Y34" s="247"/>
-      <c r="Z34" s="247"/>
-      <c r="AA34" s="247"/>
-      <c r="AB34" s="247"/>
+      <c r="W34" s="268"/>
+      <c r="X34" s="268"/>
+      <c r="Y34" s="268"/>
+      <c r="Z34" s="268"/>
+      <c r="AA34" s="268"/>
+      <c r="AB34" s="268"/>
       <c r="AC34" s="87"/>
       <c r="AD34" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD33+1&lt;='Student Work'!$AE$13,AD33&lt;&gt;0),AD33+1,IF('Student Work'!AD34&gt;0,"ERROR",0)),0)</f>
@@ -49605,49 +49605,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NshzEDbmFRdkiIv8gTFJk56G9ZqpZnBuwdCBmaneYZjpopbeC7u16To+u/JvWltSi32dgGbYBHqQUo46R8TAkw==" saltValue="z0P3DOiGOI9Tzj2UoYWQIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="D7:I9"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AG7:AH9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Q10:R12"/>
-    <mergeCell ref="W10:AC16"/>
-    <mergeCell ref="AG10:AH12"/>
-    <mergeCell ref="D11:I12"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="D20:I25"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="W22:AB23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="K26:M29"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AA25:AB25"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="W29:AB30"/>
@@ -49659,13 +49623,49 @@
     <mergeCell ref="W32:Z32"/>
     <mergeCell ref="W34:AB34"/>
     <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="K26:M29"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="D20:I25"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="W22:AB23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="D11:I12"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Q10:R12"/>
+    <mergeCell ref="W10:AC16"/>
+    <mergeCell ref="AG10:AH12"/>
+    <mergeCell ref="D7:I9"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AG7:AH9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="Z18:Z21 AA35:AA38 Z35:Z399 U37:V400 W35:Y398 AA39:AB398 AC29 W28:AB28 AC38:AC400 AB36:AB38">
     <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Caution">
@@ -49769,9 +49769,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49959,26 +49962,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6BF3D1-55F2-4441-808A-8989E5F02D69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34DF197C-C302-4DFA-87A4-CA7E205F71FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0acb5147-8577-475e-9c5c-8643af49afee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -50002,9 +49994,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34DF197C-C302-4DFA-87A4-CA7E205F71FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6BF3D1-55F2-4441-808A-8989E5F02D69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0acb5147-8577-475e-9c5c-8643af49afee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExcelFiles/HomeLoanCaseStudy.xlsx
+++ b/ExcelFiles/HomeLoanCaseStudy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{AF91B1B7-9C0E-499A-BC83-A0A932F09CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1145158-01C8-4475-A981-46094053D16E}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{AF91B1B7-9C0E-499A-BC83-A0A932F09CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5447F88C-F113-4EF4-8A25-BFA491B156DF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1610,7 +1610,7 @@
 </t>
   </si>
   <si>
-    <t>Spring 2023</t>
+    <t>Fall 2023</t>
   </si>
 </sst>
 </file>
@@ -3439,25 +3439,106 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -3477,65 +3558,8 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3573,94 +3597,99 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -3669,6 +3698,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3683,34 +3721,6 @@
     <xf numFmtId="0" fontId="51" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3724,36 +3734,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3784,161 +3784,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3999,6 +3849,156 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5611,31 +5611,31 @@
     <row r="2" spans="1:109" ht="30.75">
       <c r="A2" s="2"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
+      <c r="R2" s="231" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="231"/>
+      <c r="T2" s="231"/>
+      <c r="U2" s="231"/>
+      <c r="V2" s="231"/>
+      <c r="W2" s="231"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -5664,14 +5664,14 @@
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="176" t="s">
+      <c r="D3" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -5716,14 +5716,14 @@
       <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="179"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="204"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -5737,7 +5737,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="183" t="s">
+      <c r="W4" s="197" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="16"/>
@@ -5758,12 +5758,12 @@
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="182"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="207"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -5771,7 +5771,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="7"/>
       <c r="R5" s="18"/>
-      <c r="W5" s="183"/>
+      <c r="W5" s="197"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
@@ -5796,15 +5796,15 @@
       <c r="N6" s="5"/>
       <c r="O6" s="7"/>
       <c r="R6" s="18"/>
-      <c r="W6" s="184" t="s">
+      <c r="W6" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="185"/>
-      <c r="Y6" s="185"/>
-      <c r="Z6" s="185"/>
-      <c r="AA6" s="185"/>
-      <c r="AB6" s="185"/>
-      <c r="AC6" s="186"/>
+      <c r="X6" s="234"/>
+      <c r="Y6" s="234"/>
+      <c r="Z6" s="234"/>
+      <c r="AA6" s="234"/>
+      <c r="AB6" s="234"/>
+      <c r="AC6" s="235"/>
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:109" ht="27" thickBot="1">
@@ -5813,40 +5813,40 @@
       <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="204"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="7"/>
-      <c r="Q7" s="197" t="s">
+      <c r="Q7" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="197"/>
+      <c r="R7" s="227"/>
       <c r="S7" s="21"/>
       <c r="W7" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="173"/>
+      <c r="X7" s="228"/>
+      <c r="Y7" s="229"/>
       <c r="Z7" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="AA7" s="172"/>
-      <c r="AB7" s="173"/>
+      <c r="AA7" s="228"/>
+      <c r="AB7" s="229"/>
       <c r="AC7" s="165"/>
-      <c r="AG7" s="197" t="s">
+      <c r="AG7" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="AH7" s="197"/>
+      <c r="AH7" s="227"/>
       <c r="AI7" s="22"/>
       <c r="AL7" s="2"/>
     </row>
@@ -5854,22 +5854,22 @@
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="189"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="238"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="171" t="s">
+      <c r="O8" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="197"/>
-      <c r="R8" s="197"/>
+      <c r="Q8" s="227"/>
+      <c r="R8" s="227"/>
       <c r="S8" s="24" t="s">
         <v>12</v>
       </c>
@@ -5877,23 +5877,23 @@
       <c r="W8" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="173"/>
+      <c r="X8" s="228"/>
+      <c r="Y8" s="229"/>
       <c r="Z8" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="173"/>
+      <c r="AA8" s="228"/>
+      <c r="AB8" s="229"/>
       <c r="AC8" s="166"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="25"/>
       <c r="AF8" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="197"/>
-      <c r="AH8" s="197"/>
+      <c r="AG8" s="227"/>
+      <c r="AH8" s="227"/>
       <c r="AI8" s="22"/>
-      <c r="AJ8" s="171" t="s">
+      <c r="AJ8" s="208" t="s">
         <v>15</v>
       </c>
       <c r="AL8" s="2"/>
@@ -5902,20 +5902,20 @@
       <c r="A9" s="2"/>
       <c r="B9" s="27"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="182"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="207"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="171"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
+      <c r="O9" s="208"/>
+      <c r="Q9" s="227"/>
+      <c r="R9" s="227"/>
       <c r="S9" s="28" t="s">
         <v>20</v>
       </c>
@@ -5923,23 +5923,23 @@
       <c r="W9" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="193"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="224"/>
       <c r="Z9" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="193"/>
+      <c r="AA9" s="223"/>
+      <c r="AB9" s="224"/>
       <c r="AC9" s="169"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="29"/>
       <c r="AF9" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="AG9" s="197"/>
-      <c r="AH9" s="197"/>
+      <c r="AG9" s="227"/>
+      <c r="AH9" s="227"/>
       <c r="AI9" s="22"/>
-      <c r="AJ9" s="171"/>
+      <c r="AJ9" s="208"/>
       <c r="AL9" s="2"/>
     </row>
     <row r="10" spans="1:109" ht="20.25">
@@ -5958,30 +5958,30 @@
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="O10" s="31"/>
-      <c r="Q10" s="194" t="s">
+      <c r="Q10" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="194"/>
+      <c r="R10" s="225"/>
       <c r="S10" s="28" t="s">
         <v>16</v>
       </c>
       <c r="T10" s="29"/>
-      <c r="W10" s="195"/>
-      <c r="X10" s="195"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="195"/>
-      <c r="AA10" s="195"/>
-      <c r="AB10" s="195"/>
-      <c r="AC10" s="195"/>
+      <c r="W10" s="226"/>
+      <c r="X10" s="226"/>
+      <c r="Y10" s="226"/>
+      <c r="Z10" s="226"/>
+      <c r="AA10" s="226"/>
+      <c r="AB10" s="226"/>
+      <c r="AC10" s="226"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="29"/>
       <c r="AF10" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="AG10" s="196" t="s">
+      <c r="AG10" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="AH10" s="196"/>
+      <c r="AH10" s="187"/>
       <c r="AI10" s="32"/>
       <c r="AL10" s="2"/>
     </row>
@@ -5991,14 +5991,14 @@
       <c r="C11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="177" t="s">
+      <c r="D11" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="179"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="204"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
@@ -6006,26 +6006,26 @@
       <c r="N11" s="27"/>
       <c r="O11" s="31"/>
       <c r="P11" s="33"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
+      <c r="Q11" s="225"/>
+      <c r="R11" s="225"/>
       <c r="S11" s="28" t="s">
         <v>67</v>
       </c>
       <c r="T11" s="29"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="195"/>
-      <c r="Y11" s="195"/>
-      <c r="Z11" s="195"/>
-      <c r="AA11" s="195"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="195"/>
+      <c r="W11" s="226"/>
+      <c r="X11" s="226"/>
+      <c r="Y11" s="226"/>
+      <c r="Z11" s="226"/>
+      <c r="AA11" s="226"/>
+      <c r="AB11" s="226"/>
+      <c r="AC11" s="226"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="AG11" s="196"/>
-      <c r="AH11" s="196"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="187"/>
       <c r="AI11" s="32"/>
       <c r="AL11" s="2"/>
     </row>
@@ -6033,12 +6033,12 @@
       <c r="A12" s="2"/>
       <c r="B12" s="27"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="182"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="207"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
@@ -6046,26 +6046,26 @@
       <c r="N12" s="27"/>
       <c r="O12" s="31"/>
       <c r="P12" s="33"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="194"/>
+      <c r="Q12" s="225"/>
+      <c r="R12" s="225"/>
       <c r="S12" s="28" t="s">
         <v>24</v>
       </c>
       <c r="T12" s="35"/>
-      <c r="W12" s="195"/>
-      <c r="X12" s="195"/>
-      <c r="Y12" s="195"/>
-      <c r="Z12" s="195"/>
-      <c r="AA12" s="195"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="195"/>
+      <c r="W12" s="226"/>
+      <c r="X12" s="226"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="226"/>
+      <c r="AA12" s="226"/>
+      <c r="AB12" s="226"/>
+      <c r="AC12" s="226"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="35"/>
       <c r="AF12" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="AG12" s="196"/>
-      <c r="AH12" s="196"/>
+      <c r="AG12" s="187"/>
+      <c r="AH12" s="187"/>
       <c r="AI12" s="32"/>
       <c r="AL12" s="2"/>
     </row>
@@ -6090,13 +6090,13 @@
         <v>25</v>
       </c>
       <c r="T13" s="37"/>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="195"/>
-      <c r="AB13" s="195"/>
-      <c r="AC13" s="195"/>
+      <c r="W13" s="226"/>
+      <c r="X13" s="226"/>
+      <c r="Y13" s="226"/>
+      <c r="Z13" s="226"/>
+      <c r="AA13" s="226"/>
+      <c r="AB13" s="226"/>
+      <c r="AC13" s="226"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="37"/>
       <c r="AF13" s="150" t="s">
@@ -6113,14 +6113,14 @@
       <c r="C14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="179"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="204"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -6134,13 +6134,13 @@
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
       <c r="V14" s="39"/>
-      <c r="W14" s="195"/>
-      <c r="X14" s="195"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="195"/>
-      <c r="AA14" s="195"/>
-      <c r="AB14" s="195"/>
-      <c r="AC14" s="195"/>
+      <c r="W14" s="226"/>
+      <c r="X14" s="226"/>
+      <c r="Y14" s="226"/>
+      <c r="Z14" s="226"/>
+      <c r="AA14" s="226"/>
+      <c r="AB14" s="226"/>
+      <c r="AC14" s="226"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="150" t="s">
@@ -6155,12 +6155,12 @@
       <c r="A15" s="2"/>
       <c r="B15" s="27"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="182"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="207"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -6173,13 +6173,13 @@
       <c r="T15" s="29"/>
       <c r="U15" s="39"/>
       <c r="V15" s="39"/>
-      <c r="W15" s="195"/>
-      <c r="X15" s="195"/>
-      <c r="Y15" s="195"/>
-      <c r="Z15" s="195"/>
-      <c r="AA15" s="195"/>
-      <c r="AB15" s="195"/>
-      <c r="AC15" s="195"/>
+      <c r="W15" s="226"/>
+      <c r="X15" s="226"/>
+      <c r="Y15" s="226"/>
+      <c r="Z15" s="226"/>
+      <c r="AA15" s="226"/>
+      <c r="AB15" s="226"/>
+      <c r="AC15" s="226"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="29"/>
       <c r="AF15" s="150" t="s">
@@ -6211,13 +6211,13 @@
         <v>29</v>
       </c>
       <c r="T16" s="43"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
-      <c r="Y16" s="195"/>
-      <c r="Z16" s="195"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="195"/>
-      <c r="AC16" s="195"/>
+      <c r="W16" s="226"/>
+      <c r="X16" s="226"/>
+      <c r="Y16" s="226"/>
+      <c r="Z16" s="226"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="226"/>
+      <c r="AC16" s="226"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="43"/>
       <c r="AF16" s="151" t="s">
@@ -6234,16 +6234,16 @@
       <c r="C17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="179"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="204"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="171" t="s">
+      <c r="K17" s="208" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="27"/>
@@ -6252,16 +6252,16 @@
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="45"/>
-      <c r="S17" s="190" t="s">
+      <c r="S17" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="190"/>
+      <c r="T17" s="221"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="26"/>
-      <c r="AE17" s="190" t="s">
+      <c r="AE17" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="AF17" s="190"/>
+      <c r="AF17" s="221"/>
       <c r="AG17" s="46"/>
       <c r="AH17" s="46"/>
       <c r="AI17" s="33"/>
@@ -6271,21 +6271,21 @@
       <c r="A18" s="2"/>
       <c r="B18" s="27"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="182"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="207"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="171"/>
+      <c r="K18" s="208"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
-      <c r="P18" s="191" t="s">
+      <c r="P18" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="191"/>
+      <c r="Q18" s="222"/>
       <c r="R18" s="47" t="s">
         <v>34</v>
       </c>
@@ -6298,10 +6298,10 @@
       <c r="Z18" s="49"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
-      <c r="AD18" s="191" t="s">
+      <c r="AD18" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="AE18" s="191"/>
+      <c r="AE18" s="222"/>
       <c r="AF18" s="47" t="s">
         <v>34</v>
       </c>
@@ -6323,11 +6323,11 @@
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="202" t="s">
+      <c r="K19" s="209" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="203"/>
-      <c r="M19" s="204"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="211"/>
       <c r="N19" s="27"/>
       <c r="P19" s="51" t="s">
         <v>36</v>
@@ -6373,14 +6373,14 @@
       <c r="C20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="205" t="s">
+      <c r="D20" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="207"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
       <c r="J20" s="27"/>
       <c r="K20" s="56"/>
       <c r="L20" s="57"/>
@@ -6393,7 +6393,7 @@
       <c r="R20" s="59"/>
       <c r="S20" s="60"/>
       <c r="T20" s="59"/>
-      <c r="W20" s="183" t="s">
+      <c r="W20" s="197" t="s">
         <v>5</v>
       </c>
       <c r="X20" s="49"/>
@@ -6415,12 +6415,12 @@
       <c r="A21" s="2"/>
       <c r="B21" s="27"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="210"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="217"/>
       <c r="J21" s="27"/>
       <c r="K21" s="198" t="s">
         <v>42</v>
@@ -6435,7 +6435,7 @@
       <c r="R21" s="59"/>
       <c r="S21" s="60"/>
       <c r="T21" s="59"/>
-      <c r="W21" s="183"/>
+      <c r="W21" s="197"/>
       <c r="X21" s="49"/>
       <c r="Y21" s="49"/>
       <c r="Z21" s="49"/>
@@ -6455,12 +6455,12 @@
       <c r="A22" s="2"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="210"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="217"/>
       <c r="J22" s="27"/>
       <c r="K22" s="198" t="s">
         <v>43</v>
@@ -6475,14 +6475,14 @@
       <c r="R22" s="59"/>
       <c r="S22" s="60"/>
       <c r="T22" s="59"/>
-      <c r="W22" s="221" t="s">
+      <c r="W22" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="X22" s="221"/>
-      <c r="Y22" s="221"/>
-      <c r="Z22" s="221"/>
-      <c r="AA22" s="221"/>
-      <c r="AB22" s="221"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="194"/>
       <c r="AD22" s="162">
         <v>3</v>
       </c>
@@ -6497,12 +6497,12 @@
       <c r="A23" s="2"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="210"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="217"/>
       <c r="J23" s="27"/>
       <c r="K23" s="198" t="s">
         <v>45</v>
@@ -6517,12 +6517,12 @@
       <c r="R23" s="59"/>
       <c r="S23" s="60"/>
       <c r="T23" s="59"/>
-      <c r="W23" s="221"/>
-      <c r="X23" s="221"/>
-      <c r="Y23" s="221"/>
-      <c r="Z23" s="221"/>
-      <c r="AA23" s="221"/>
-      <c r="AB23" s="221"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
       <c r="AD23" s="162">
         <v>4</v>
       </c>
@@ -6537,12 +6537,12 @@
       <c r="A24" s="2"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="210"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="217"/>
       <c r="J24" s="27"/>
       <c r="K24" s="198" t="s">
         <v>46</v>
@@ -6557,14 +6557,14 @@
       <c r="R24" s="59"/>
       <c r="S24" s="60"/>
       <c r="T24" s="59"/>
-      <c r="W24" s="214" t="s">
+      <c r="W24" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="X24" s="215"/>
-      <c r="Y24" s="215"/>
-      <c r="Z24" s="216"/>
-      <c r="AA24" s="217"/>
-      <c r="AB24" s="218"/>
+      <c r="X24" s="172"/>
+      <c r="Y24" s="172"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="174"/>
+      <c r="AB24" s="175"/>
       <c r="AD24" s="162">
         <v>5</v>
       </c>
@@ -6581,12 +6581,12 @@
       <c r="A25" s="2"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="213"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="220"/>
       <c r="J25" s="27"/>
       <c r="K25" s="200"/>
       <c r="L25" s="201"/>
@@ -6600,14 +6600,14 @@
       <c r="R25" s="160"/>
       <c r="S25" s="161"/>
       <c r="T25" s="161"/>
-      <c r="W25" s="214" t="s">
+      <c r="W25" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="X25" s="215"/>
-      <c r="Y25" s="215"/>
-      <c r="Z25" s="216"/>
-      <c r="AA25" s="219"/>
-      <c r="AB25" s="220"/>
+      <c r="X25" s="172"/>
+      <c r="Y25" s="172"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="181"/>
+      <c r="AB25" s="182"/>
       <c r="AD25" s="159"/>
       <c r="AE25" s="159"/>
       <c r="AF25" s="159"/>
@@ -6618,8 +6618,8 @@
       </c>
       <c r="AK25" s="62"/>
       <c r="AL25" s="2"/>
-      <c r="AP25" s="217"/>
-      <c r="AQ25" s="218"/>
+      <c r="AP25" s="174"/>
+      <c r="AQ25" s="175"/>
       <c r="AR25" s="1" t="s">
         <v>51</v>
       </c>
@@ -6635,26 +6635,26 @@
       <c r="H26" s="170"/>
       <c r="I26" s="170"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="222" t="str">
+      <c r="K26" s="183" t="str">
         <f>IF(T8&gt;0,CONCATENATE("Suppose you sell your home at year 10 for $",ROUND(1.2*T8,0),". After you repay the remaining balance of your home, any money you have left over is called equity. The following questions help you compare the equity in your home after 10 years."),"Suppose you sell your home at year 10 for... (complete parts #3 and #4 before the remainder of this question will show up.)")</f>
         <v>Suppose you sell your home at year 10 for... (complete parts #3 and #4 before the remainder of this question will show up.)</v>
       </c>
-      <c r="L26" s="223"/>
-      <c r="M26" s="224"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="185"/>
       <c r="N26" s="27"/>
       <c r="P26" s="159"/>
       <c r="Q26" s="159"/>
       <c r="R26" s="160"/>
       <c r="S26" s="161"/>
       <c r="T26" s="161"/>
-      <c r="W26" s="214" t="s">
+      <c r="W26" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="X26" s="215"/>
-      <c r="Y26" s="215"/>
-      <c r="Z26" s="216"/>
-      <c r="AA26" s="230"/>
-      <c r="AB26" s="231"/>
+      <c r="X26" s="172"/>
+      <c r="Y26" s="172"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="192"/>
+      <c r="AB26" s="193"/>
       <c r="AD26" s="159"/>
       <c r="AE26" s="159"/>
       <c r="AF26" s="159"/>
@@ -6679,21 +6679,21 @@
       <c r="H27" s="170"/>
       <c r="I27" s="170"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="225"/>
-      <c r="L27" s="196"/>
-      <c r="M27" s="226"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="188"/>
       <c r="N27" s="27"/>
       <c r="P27" s="159"/>
       <c r="Q27" s="159"/>
       <c r="R27" s="160"/>
       <c r="S27" s="161"/>
       <c r="T27" s="161"/>
-      <c r="W27" s="232"/>
-      <c r="X27" s="233"/>
-      <c r="Y27" s="233"/>
-      <c r="Z27" s="233"/>
-      <c r="AA27" s="233"/>
-      <c r="AB27" s="234"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="179"/>
+      <c r="Y27" s="179"/>
+      <c r="Z27" s="179"/>
+      <c r="AA27" s="179"/>
+      <c r="AB27" s="180"/>
       <c r="AD27" s="159"/>
       <c r="AE27" s="159"/>
       <c r="AF27" s="159"/>
@@ -6719,9 +6719,9 @@
       <c r="H28" s="170"/>
       <c r="I28" s="170"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="225"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="226"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="188"/>
       <c r="N28" s="27"/>
       <c r="P28" s="159"/>
       <c r="Q28" s="159"/>
@@ -6750,23 +6750,23 @@
       <c r="H29" s="170"/>
       <c r="I29" s="170"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="227"/>
-      <c r="L29" s="228"/>
-      <c r="M29" s="229"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="191"/>
       <c r="N29" s="5"/>
       <c r="P29" s="159"/>
       <c r="Q29" s="159"/>
       <c r="R29" s="160"/>
       <c r="S29" s="161"/>
       <c r="T29" s="161"/>
-      <c r="W29" s="221" t="s">
+      <c r="W29" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="X29" s="221"/>
-      <c r="Y29" s="221"/>
-      <c r="Z29" s="221"/>
-      <c r="AA29" s="221"/>
-      <c r="AB29" s="221"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
       <c r="AD29" s="159"/>
       <c r="AE29" s="159"/>
       <c r="AF29" s="159"/>
@@ -6789,10 +6789,10 @@
       <c r="H30" s="170"/>
       <c r="I30" s="170"/>
       <c r="J30" s="27"/>
-      <c r="K30" s="235" t="s">
+      <c r="K30" s="195" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="236"/>
+      <c r="L30" s="196"/>
       <c r="M30" s="59"/>
       <c r="N30" s="27"/>
       <c r="P30" s="159"/>
@@ -6800,12 +6800,12 @@
       <c r="R30" s="160"/>
       <c r="S30" s="161"/>
       <c r="T30" s="161"/>
-      <c r="W30" s="221"/>
-      <c r="X30" s="221"/>
-      <c r="Y30" s="221"/>
-      <c r="Z30" s="221"/>
-      <c r="AA30" s="221"/>
-      <c r="AB30" s="221"/>
+      <c r="W30" s="194"/>
+      <c r="X30" s="194"/>
+      <c r="Y30" s="194"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
       <c r="AD30" s="159"/>
       <c r="AE30" s="159"/>
       <c r="AF30" s="159"/>
@@ -6839,14 +6839,14 @@
       <c r="R31" s="160"/>
       <c r="S31" s="161"/>
       <c r="T31" s="161"/>
-      <c r="W31" s="214" t="s">
+      <c r="W31" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="X31" s="215"/>
-      <c r="Y31" s="215"/>
-      <c r="Z31" s="216"/>
-      <c r="AA31" s="217"/>
-      <c r="AB31" s="218"/>
+      <c r="X31" s="172"/>
+      <c r="Y31" s="172"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="174"/>
+      <c r="AB31" s="175"/>
       <c r="AD31" s="159"/>
       <c r="AE31" s="159"/>
       <c r="AF31" s="159"/>
@@ -6877,14 +6877,14 @@
       <c r="R32" s="160"/>
       <c r="S32" s="161"/>
       <c r="T32" s="161"/>
-      <c r="W32" s="214" t="s">
+      <c r="W32" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="X32" s="215"/>
-      <c r="Y32" s="215"/>
-      <c r="Z32" s="216"/>
-      <c r="AA32" s="219"/>
-      <c r="AB32" s="220"/>
+      <c r="X32" s="172"/>
+      <c r="Y32" s="172"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="181"/>
+      <c r="AB32" s="182"/>
       <c r="AD32" s="159"/>
       <c r="AE32" s="159"/>
       <c r="AF32" s="159"/>
@@ -6915,14 +6915,14 @@
       <c r="R33" s="160"/>
       <c r="S33" s="161"/>
       <c r="T33" s="161"/>
-      <c r="W33" s="214" t="s">
+      <c r="W33" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="X33" s="215"/>
-      <c r="Y33" s="215"/>
-      <c r="Z33" s="216"/>
-      <c r="AA33" s="237"/>
-      <c r="AB33" s="238"/>
+      <c r="X33" s="172"/>
+      <c r="Y33" s="172"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="176"/>
+      <c r="AB33" s="177"/>
       <c r="AD33" s="159"/>
       <c r="AE33" s="159"/>
       <c r="AF33" s="159"/>
@@ -6951,12 +6951,12 @@
       <c r="R34" s="160"/>
       <c r="S34" s="161"/>
       <c r="T34" s="161"/>
-      <c r="W34" s="232"/>
-      <c r="X34" s="233"/>
-      <c r="Y34" s="233"/>
-      <c r="Z34" s="233"/>
-      <c r="AA34" s="233"/>
-      <c r="AB34" s="234"/>
+      <c r="W34" s="178"/>
+      <c r="X34" s="179"/>
+      <c r="Y34" s="179"/>
+      <c r="Z34" s="179"/>
+      <c r="AA34" s="179"/>
+      <c r="AB34" s="180"/>
       <c r="AD34" s="159"/>
       <c r="AE34" s="159"/>
       <c r="AF34" s="159"/>
@@ -19799,43 +19799,18 @@
       <c r="AL437" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9yD7iUO/mi2j59xAf+HPQn5iby7W566y391mDRuffsyeYuINq2cSltgNZdjoKM6qnViqaVWDFR3XfHGhvSrZBg==" saltValue="5tClQDnTqn8s+p0CbQ3JvA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q8KamFvPLfrmRkEipH8Shab5+3l2keb6vjmhOCY04QxZmSg2yxInU1uIBJIlkyrO9cHyzStxzQ7xKZLT+UaS8w==" saltValue="88v4ZdwbZaLOE5K0EJmbBQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0" sort="0" autoFilter="0"/>
   <mergeCells count="59">
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="W34:AB34"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="K26:M29"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="W29:AB30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="W22:AB23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="D11:I12"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="D20:I25"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="D7:I9"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="P18:Q18"/>
@@ -19850,16 +19825,41 @@
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="AG7:AH9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="D7:I9"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="D11:I12"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="D20:I25"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="W22:AB23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="K26:M29"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="W29:AB30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="W34:AB34"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21 M23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -19956,22 +19956,22 @@
     <row r="2" spans="1:46" ht="33" customHeight="1">
       <c r="A2" s="69"/>
       <c r="B2" s="72"/>
-      <c r="C2" s="239" t="str">
+      <c r="C2" s="265" t="str">
         <f>'Student Work'!C2:O2</f>
         <v>MATH 108X - Home Loan Project</v>
       </c>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="265"/>
+      <c r="M2" s="265"/>
+      <c r="N2" s="265"/>
+      <c r="O2" s="265"/>
       <c r="P2" s="73"/>
       <c r="Q2" s="74"/>
       <c r="R2" s="74"/>
@@ -20008,20 +20008,20 @@
       <c r="A3" s="69"/>
       <c r="B3" s="72"/>
       <c r="C3" s="78"/>
-      <c r="D3" s="240" t="s">
+      <c r="D3" s="266" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
-      <c r="L3" s="249" t="s">
+      <c r="L3" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="249"/>
+      <c r="M3" s="268"/>
       <c r="N3" s="79">
         <f>COUNTIF(K7:AI380,"ERROR")</f>
         <v>76</v>
@@ -20065,21 +20065,21 @@
       <c r="C4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="D4" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="243"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="252"/>
       <c r="J4" s="72"/>
       <c r="K4" s="72"/>
-      <c r="L4" s="250" t="s">
+      <c r="L4" s="269" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="250"/>
-      <c r="N4" s="251">
+      <c r="M4" s="269"/>
+      <c r="N4" s="270">
         <f>COUNTIF(K6:AI380,"Correct")</f>
         <v>0</v>
       </c>
@@ -20091,7 +20091,7 @@
       <c r="T4" s="84"/>
       <c r="U4" s="84"/>
       <c r="V4" s="84"/>
-      <c r="W4" s="247" t="s">
+      <c r="W4" s="259" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="85"/>
@@ -20114,17 +20114,17 @@
       <c r="A5" s="69"/>
       <c r="B5" s="72"/>
       <c r="C5" s="88"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="246"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="258"/>
       <c r="J5" s="72"/>
       <c r="K5" s="72"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="251"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="270"/>
       <c r="O5" s="73"/>
       <c r="P5" s="87"/>
       <c r="Q5" s="74"/>
@@ -20133,7 +20133,7 @@
       <c r="T5" s="87"/>
       <c r="U5" s="87"/>
       <c r="V5" s="87"/>
-      <c r="W5" s="247"/>
+      <c r="W5" s="259"/>
       <c r="X5" s="85"/>
       <c r="Y5" s="85"/>
       <c r="Z5" s="85"/>
@@ -20173,15 +20173,15 @@
       <c r="T6" s="87"/>
       <c r="U6" s="87"/>
       <c r="V6" s="87"/>
-      <c r="W6" s="248" t="s">
+      <c r="W6" s="267" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="248"/>
-      <c r="Y6" s="248"/>
-      <c r="Z6" s="248"/>
-      <c r="AA6" s="248"/>
-      <c r="AB6" s="248"/>
-      <c r="AC6" s="248"/>
+      <c r="X6" s="267"/>
+      <c r="Y6" s="267"/>
+      <c r="Z6" s="267"/>
+      <c r="AA6" s="267"/>
+      <c r="AB6" s="267"/>
+      <c r="AC6" s="267"/>
       <c r="AD6" s="87"/>
       <c r="AE6" s="87"/>
       <c r="AF6" s="87"/>
@@ -20198,14 +20198,14 @@
       <c r="C7" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="241" t="s">
+      <c r="D7" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="243"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="252"/>
       <c r="J7" s="72"/>
       <c r="K7" s="72"/>
       <c r="L7" s="72"/>
@@ -20213,10 +20213,10 @@
       <c r="N7" s="72"/>
       <c r="O7" s="73"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="255" t="s">
+      <c r="Q7" s="264" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="255"/>
+      <c r="R7" s="264"/>
       <c r="S7" s="91"/>
       <c r="T7" s="87"/>
       <c r="U7" s="87"/>
@@ -20224,27 +20224,27 @@
       <c r="W7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="256" t="str">
+      <c r="X7" s="243" t="str">
         <f>IF(ISBLANK('Student Work'!X7:Y7),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="Y7" s="256"/>
+      <c r="Y7" s="243"/>
       <c r="Z7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="AA7" s="256" t="str">
+      <c r="AA7" s="243" t="str">
         <f>IF(ISBLANK('Student Work'!AA7:AB7),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB7" s="256"/>
+      <c r="AB7" s="243"/>
       <c r="AC7" s="93"/>
       <c r="AD7" s="87"/>
       <c r="AE7" s="87"/>
       <c r="AF7" s="87"/>
-      <c r="AG7" s="255" t="s">
+      <c r="AG7" s="264" t="s">
         <v>56</v>
       </c>
-      <c r="AH7" s="255"/>
+      <c r="AH7" s="264"/>
       <c r="AI7" s="87"/>
       <c r="AJ7" s="87"/>
       <c r="AK7" s="87"/>
@@ -20254,23 +20254,23 @@
       <c r="A8" s="69"/>
       <c r="B8" s="72"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="254"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="255"/>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
       <c r="M8" s="72"/>
       <c r="N8" s="72"/>
-      <c r="O8" s="257" t="s">
+      <c r="O8" s="260" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="87"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="255"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
       <c r="S8" s="95" t="s">
         <v>12</v>
       </c>
@@ -20283,19 +20283,19 @@
       <c r="W8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="256" t="str">
+      <c r="X8" s="243" t="str">
         <f>IF(ISBLANK('Student Work'!X8:Y8),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="Y8" s="256"/>
+      <c r="Y8" s="243"/>
       <c r="Z8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="256" t="str">
+      <c r="AA8" s="243" t="str">
         <f>IF(ISBLANK('Student Work'!AA8:AB8),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB8" s="256"/>
+      <c r="AB8" s="243"/>
       <c r="AC8" s="97"/>
       <c r="AD8" s="98"/>
       <c r="AE8" s="99" t="str">
@@ -20305,10 +20305,10 @@
       <c r="AF8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="255"/>
-      <c r="AH8" s="255"/>
+      <c r="AG8" s="264"/>
+      <c r="AH8" s="264"/>
       <c r="AI8" s="87"/>
-      <c r="AJ8" s="257" t="s">
+      <c r="AJ8" s="260" t="s">
         <v>15</v>
       </c>
       <c r="AK8" s="87"/>
@@ -20318,21 +20318,21 @@
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="246"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="258"/>
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
       <c r="L9" s="101"/>
       <c r="M9" s="101"/>
       <c r="N9" s="101"/>
-      <c r="O9" s="257"/>
+      <c r="O9" s="260"/>
       <c r="P9" s="87"/>
-      <c r="Q9" s="255"/>
-      <c r="R9" s="255"/>
+      <c r="Q9" s="264"/>
+      <c r="R9" s="264"/>
       <c r="S9" s="95" t="s">
         <v>20</v>
       </c>
@@ -20344,19 +20344,19 @@
       <c r="W9" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="256" t="str">
+      <c r="X9" s="243" t="str">
         <f>IF(ISBLANK('Student Work'!X9:Y9),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="Y9" s="256"/>
+      <c r="Y9" s="243"/>
       <c r="Z9" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="256" t="str">
+      <c r="AA9" s="243" t="str">
         <f>IF(ISBLANK('Student Work'!AA9:AB9),"ERROR","Correct")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB9" s="256"/>
+      <c r="AB9" s="243"/>
       <c r="AC9" s="97"/>
       <c r="AD9" s="98"/>
       <c r="AE9" s="153" t="s">
@@ -20365,10 +20365,10 @@
       <c r="AF9" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="AG9" s="255"/>
-      <c r="AH9" s="255"/>
+      <c r="AG9" s="264"/>
+      <c r="AH9" s="264"/>
       <c r="AI9" s="87"/>
-      <c r="AJ9" s="257"/>
+      <c r="AJ9" s="260"/>
       <c r="AK9" s="87"/>
       <c r="AL9" s="70"/>
     </row>
@@ -20389,8 +20389,8 @@
       <c r="N10" s="101"/>
       <c r="O10" s="105"/>
       <c r="P10" s="87"/>
-      <c r="Q10" s="258"/>
-      <c r="R10" s="258"/>
+      <c r="Q10" s="261"/>
+      <c r="R10" s="261"/>
       <c r="S10" s="95" t="s">
         <v>16</v>
       </c>
@@ -20400,13 +20400,13 @@
       </c>
       <c r="U10" s="87"/>
       <c r="V10" s="87"/>
-      <c r="W10" s="259"/>
-      <c r="X10" s="259"/>
-      <c r="Y10" s="259"/>
-      <c r="Z10" s="259"/>
-      <c r="AA10" s="259"/>
-      <c r="AB10" s="259"/>
-      <c r="AC10" s="259"/>
+      <c r="W10" s="262"/>
+      <c r="X10" s="262"/>
+      <c r="Y10" s="262"/>
+      <c r="Z10" s="262"/>
+      <c r="AA10" s="262"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
       <c r="AD10" s="98"/>
       <c r="AE10" s="102" t="str">
         <f>IF(ISBLANK('Student Work'!AE10),"ERROR",IF('Student Work'!AE10=SUM('Student Work'!AA32:AB32),"Correct","ERROR"))</f>
@@ -20415,8 +20415,8 @@
       <c r="AF10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AG10" s="260"/>
-      <c r="AH10" s="260"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
       <c r="AI10" s="106"/>
       <c r="AJ10" s="87"/>
       <c r="AK10" s="87"/>
@@ -20428,14 +20428,14 @@
       <c r="C11" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="241" t="s">
+      <c r="D11" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="243"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="252"/>
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
       <c r="L11" s="101"/>
@@ -20443,8 +20443,8 @@
       <c r="N11" s="101"/>
       <c r="O11" s="105"/>
       <c r="P11" s="106"/>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="258"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="261"/>
       <c r="S11" s="95" t="s">
         <v>23</v>
       </c>
@@ -20454,13 +20454,13 @@
       </c>
       <c r="U11" s="87"/>
       <c r="V11" s="87"/>
-      <c r="W11" s="259"/>
-      <c r="X11" s="259"/>
-      <c r="Y11" s="259"/>
-      <c r="Z11" s="259"/>
-      <c r="AA11" s="259"/>
-      <c r="AB11" s="259"/>
-      <c r="AC11" s="259"/>
+      <c r="W11" s="262"/>
+      <c r="X11" s="262"/>
+      <c r="Y11" s="262"/>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="262"/>
+      <c r="AB11" s="262"/>
+      <c r="AC11" s="262"/>
       <c r="AD11" s="98"/>
       <c r="AE11" s="102" t="str">
         <f>IF(AND(NOT(ISBLANK('Student Work'!AE11)),ABS('Student Work'!AE11-('Student Work'!AE8-'Student Work'!AE9+'Student Work'!AE10))&lt;0.01),"Correct","ERROR")</f>
@@ -20469,8 +20469,8 @@
       <c r="AF11" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="AG11" s="260"/>
-      <c r="AH11" s="260"/>
+      <c r="AG11" s="263"/>
+      <c r="AH11" s="263"/>
       <c r="AI11" s="106"/>
       <c r="AJ11" s="87"/>
       <c r="AK11" s="87"/>
@@ -20480,12 +20480,12 @@
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
       <c r="C12" s="107"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="245"/>
-      <c r="G12" s="245"/>
-      <c r="H12" s="245"/>
-      <c r="I12" s="246"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="258"/>
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
       <c r="L12" s="101"/>
@@ -20493,8 +20493,8 @@
       <c r="N12" s="101"/>
       <c r="O12" s="105"/>
       <c r="P12" s="106"/>
-      <c r="Q12" s="258"/>
-      <c r="R12" s="258"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="261"/>
       <c r="S12" s="95" t="s">
         <v>24</v>
       </c>
@@ -20504,13 +20504,13 @@
       </c>
       <c r="U12" s="87"/>
       <c r="V12" s="87"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="259"/>
-      <c r="Y12" s="259"/>
-      <c r="Z12" s="259"/>
-      <c r="AA12" s="259"/>
-      <c r="AB12" s="259"/>
-      <c r="AC12" s="259"/>
+      <c r="W12" s="262"/>
+      <c r="X12" s="262"/>
+      <c r="Y12" s="262"/>
+      <c r="Z12" s="262"/>
+      <c r="AA12" s="262"/>
+      <c r="AB12" s="262"/>
+      <c r="AC12" s="262"/>
       <c r="AD12" s="98"/>
       <c r="AE12" s="108" t="str">
         <f>IF(AND(NOT(ISBLANK('Student Work'!AE12)),'Student Work'!AE12=SUM('Student Work'!AA33:AB33)),"Correct","ERROR")</f>
@@ -20519,8 +20519,8 @@
       <c r="AF12" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AG12" s="260"/>
-      <c r="AH12" s="260"/>
+      <c r="AG12" s="263"/>
+      <c r="AH12" s="263"/>
       <c r="AI12" s="106"/>
       <c r="AJ12" s="87"/>
       <c r="AK12" s="87"/>
@@ -20554,13 +20554,13 @@
       </c>
       <c r="U13" s="87"/>
       <c r="V13" s="87"/>
-      <c r="W13" s="259"/>
-      <c r="X13" s="259"/>
-      <c r="Y13" s="259"/>
-      <c r="Z13" s="259"/>
-      <c r="AA13" s="259"/>
-      <c r="AB13" s="259"/>
-      <c r="AC13" s="259"/>
+      <c r="W13" s="262"/>
+      <c r="X13" s="262"/>
+      <c r="Y13" s="262"/>
+      <c r="Z13" s="262"/>
+      <c r="AA13" s="262"/>
+      <c r="AB13" s="262"/>
+      <c r="AC13" s="262"/>
       <c r="AD13" s="98"/>
       <c r="AE13" s="110" t="str">
         <f>IF(AND(NOT(ISBLANK('Student Work'!AE13)),'Student Work'!AE13=360),"Correct","ERROR")</f>
@@ -20582,14 +20582,14 @@
       <c r="C14" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="241" t="s">
+      <c r="D14" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="243"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="252"/>
       <c r="J14" s="101"/>
       <c r="K14" s="101"/>
       <c r="L14" s="101"/>
@@ -20608,13 +20608,13 @@
       </c>
       <c r="U14" s="112"/>
       <c r="V14" s="112"/>
-      <c r="W14" s="259"/>
-      <c r="X14" s="259"/>
-      <c r="Y14" s="259"/>
-      <c r="Z14" s="259"/>
-      <c r="AA14" s="259"/>
-      <c r="AB14" s="259"/>
-      <c r="AC14" s="259"/>
+      <c r="W14" s="262"/>
+      <c r="X14" s="262"/>
+      <c r="Y14" s="262"/>
+      <c r="Z14" s="262"/>
+      <c r="AA14" s="262"/>
+      <c r="AB14" s="262"/>
+      <c r="AC14" s="262"/>
       <c r="AD14" s="98"/>
       <c r="AE14" s="111" t="str">
         <f>IF(ISBLANK('Student Work'!AE14),"ERROR",IF(ABS('Student Work'!AE14-PMT('Student Work'!AE12/12,'Student Work'!AE13,-'Student Work'!AE11))&lt;0.01,"Correct","ERROR"))</f>
@@ -20634,12 +20634,12 @@
       <c r="A15" s="100"/>
       <c r="B15" s="101"/>
       <c r="C15" s="113"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="245"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="246"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="257"/>
+      <c r="I15" s="258"/>
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
       <c r="L15" s="101"/>
@@ -20658,13 +20658,13 @@
       </c>
       <c r="U15" s="112"/>
       <c r="V15" s="112"/>
-      <c r="W15" s="259"/>
-      <c r="X15" s="259"/>
-      <c r="Y15" s="259"/>
-      <c r="Z15" s="259"/>
-      <c r="AA15" s="259"/>
-      <c r="AB15" s="259"/>
-      <c r="AC15" s="259"/>
+      <c r="W15" s="262"/>
+      <c r="X15" s="262"/>
+      <c r="Y15" s="262"/>
+      <c r="Z15" s="262"/>
+      <c r="AA15" s="262"/>
+      <c r="AB15" s="262"/>
+      <c r="AC15" s="262"/>
       <c r="AD15" s="98"/>
       <c r="AE15" s="103" t="str">
         <f>IF(ISBLANK('Student Work'!AE15),"ERROR",IF(ABS('Student Work'!AE15-'Student Work'!AE14*'Student Work'!AE13)&lt;1,"Correct","ERROR"))</f>
@@ -20708,13 +20708,13 @@
       </c>
       <c r="U16" s="87"/>
       <c r="V16" s="87"/>
-      <c r="W16" s="259"/>
-      <c r="X16" s="259"/>
-      <c r="Y16" s="259"/>
-      <c r="Z16" s="259"/>
-      <c r="AA16" s="259"/>
-      <c r="AB16" s="259"/>
-      <c r="AC16" s="259"/>
+      <c r="W16" s="262"/>
+      <c r="X16" s="262"/>
+      <c r="Y16" s="262"/>
+      <c r="Z16" s="262"/>
+      <c r="AA16" s="262"/>
+      <c r="AB16" s="262"/>
+      <c r="AC16" s="262"/>
       <c r="AD16" s="98"/>
       <c r="AE16" s="114" t="str">
         <f>IF(ISBLANK('Student Work'!AE16),"ERROR",IF(ABS('Student Work'!AE16-('Student Work'!AE15-'Student Work'!AE11))&lt;1,"Correct","ERROR"))</f>
@@ -20736,16 +20736,16 @@
       <c r="C17" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="241" t="s">
+      <c r="D17" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="243"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="252"/>
       <c r="J17" s="101"/>
-      <c r="K17" s="257" t="s">
+      <c r="K17" s="260" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="101"/>
@@ -20754,9 +20754,9 @@
       <c r="O17" s="87"/>
       <c r="P17" s="87"/>
       <c r="Q17" s="87"/>
-      <c r="R17" s="270"/>
-      <c r="S17" s="270"/>
-      <c r="T17" s="270"/>
+      <c r="R17" s="241"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="241"/>
       <c r="U17" s="87"/>
       <c r="V17" s="98"/>
       <c r="W17" s="98"/>
@@ -20769,9 +20769,9 @@
       <c r="AD17" s="98"/>
       <c r="AE17" s="115"/>
       <c r="AF17" s="116"/>
-      <c r="AG17" s="270"/>
-      <c r="AH17" s="270"/>
-      <c r="AI17" s="270"/>
+      <c r="AG17" s="241"/>
+      <c r="AH17" s="241"/>
+      <c r="AI17" s="241"/>
       <c r="AJ17" s="87"/>
       <c r="AK17" s="87"/>
       <c r="AL17" s="70"/>
@@ -20780,20 +20780,20 @@
       <c r="A18" s="100"/>
       <c r="B18" s="101"/>
       <c r="C18" s="109"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="245"/>
-      <c r="F18" s="245"/>
-      <c r="G18" s="245"/>
-      <c r="H18" s="245"/>
-      <c r="I18" s="246"/>
+      <c r="D18" s="256"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="257"/>
+      <c r="G18" s="257"/>
+      <c r="H18" s="257"/>
+      <c r="I18" s="258"/>
       <c r="J18" s="101"/>
-      <c r="K18" s="257"/>
+      <c r="K18" s="260"/>
       <c r="L18" s="101"/>
       <c r="M18" s="101"/>
       <c r="N18" s="101"/>
       <c r="O18" s="87"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="261"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="239"/>
       <c r="R18" s="117" t="s">
         <v>34</v>
       </c>
@@ -20814,8 +20814,8 @@
       </c>
       <c r="AB18" s="87"/>
       <c r="AC18" s="87"/>
-      <c r="AD18" s="261"/>
-      <c r="AE18" s="261"/>
+      <c r="AD18" s="239"/>
+      <c r="AE18" s="239"/>
       <c r="AF18" s="117" t="s">
         <v>34</v>
       </c>
@@ -20840,11 +20840,11 @@
       <c r="H19" s="120"/>
       <c r="I19" s="120"/>
       <c r="J19" s="101"/>
-      <c r="K19" s="269" t="s">
+      <c r="K19" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="269"/>
-      <c r="M19" s="269"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="240"/>
       <c r="N19" s="101"/>
       <c r="O19" s="87"/>
       <c r="P19" s="121" t="s">
@@ -20900,14 +20900,14 @@
       <c r="C20" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="241" t="s">
+      <c r="D20" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="243"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="252"/>
       <c r="J20" s="101"/>
       <c r="K20" s="124"/>
       <c r="L20" s="124"/>
@@ -20935,7 +20935,7 @@
       </c>
       <c r="U20" s="87"/>
       <c r="V20" s="87"/>
-      <c r="W20" s="247" t="s">
+      <c r="W20" s="259" t="s">
         <v>5</v>
       </c>
       <c r="X20" s="87"/>
@@ -20975,17 +20975,17 @@
       <c r="A21" s="100"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="254"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="255"/>
       <c r="J21" s="101"/>
-      <c r="K21" s="262" t="s">
+      <c r="K21" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="262"/>
+      <c r="L21" s="244"/>
       <c r="M21" s="131" t="str">
         <f>IF('Student Work'!M21="15-year Mortgage","Correct","ERROR")</f>
         <v>ERROR</v>
@@ -21013,7 +21013,7 @@
       </c>
       <c r="U21" s="87"/>
       <c r="V21" s="87"/>
-      <c r="W21" s="247"/>
+      <c r="W21" s="259"/>
       <c r="X21" s="87"/>
       <c r="Y21" s="87"/>
       <c r="Z21" s="87"/>
@@ -21051,17 +21051,17 @@
       <c r="A22" s="100"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
-      <c r="D22" s="252"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="254"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="255"/>
       <c r="J22" s="101"/>
-      <c r="K22" s="262" t="s">
+      <c r="K22" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="262"/>
+      <c r="L22" s="244"/>
       <c r="M22" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M22),"ERROR",IF(ABS('Student Work'!M22-('Student Work'!T14-'Student Work'!AE14))&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21089,14 +21089,14 @@
       </c>
       <c r="U22" s="87"/>
       <c r="V22" s="87"/>
-      <c r="W22" s="263" t="s">
+      <c r="W22" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="X22" s="263"/>
-      <c r="Y22" s="263"/>
-      <c r="Z22" s="263"/>
-      <c r="AA22" s="263"/>
-      <c r="AB22" s="263"/>
+      <c r="X22" s="245"/>
+      <c r="Y22" s="245"/>
+      <c r="Z22" s="245"/>
+      <c r="AA22" s="245"/>
+      <c r="AB22" s="245"/>
       <c r="AC22" s="87"/>
       <c r="AD22" s="129">
         <v>3</v>
@@ -21126,17 +21126,17 @@
       <c r="A23" s="100"/>
       <c r="B23" s="101"/>
       <c r="C23" s="101"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="254"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="255"/>
       <c r="J23" s="101"/>
-      <c r="K23" s="262" t="s">
+      <c r="K23" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="262"/>
+      <c r="L23" s="244"/>
       <c r="M23" s="131" t="str">
         <f>IF('Student Work'!M23="30-year Mortgage","Correct","ERROR")</f>
         <v>ERROR</v>
@@ -21164,12 +21164,12 @@
       </c>
       <c r="U23" s="87"/>
       <c r="V23" s="87"/>
-      <c r="W23" s="264"/>
-      <c r="X23" s="264"/>
-      <c r="Y23" s="264"/>
-      <c r="Z23" s="264"/>
-      <c r="AA23" s="264"/>
-      <c r="AB23" s="264"/>
+      <c r="W23" s="246"/>
+      <c r="X23" s="246"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="246"/>
+      <c r="AA23" s="246"/>
+      <c r="AB23" s="246"/>
       <c r="AC23" s="87"/>
       <c r="AD23" s="129">
         <v>4</v>
@@ -21199,17 +21199,17 @@
       <c r="A24" s="100"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="254"/>
+      <c r="D24" s="253"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="255"/>
       <c r="J24" s="101"/>
-      <c r="K24" s="262" t="s">
+      <c r="K24" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="262"/>
+      <c r="L24" s="244"/>
       <c r="M24" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M24),"ERROR",IF(ABS('Student Work'!M24-('Student Work'!AE16-'Student Work'!T16))&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21237,17 +21237,17 @@
       </c>
       <c r="U24" s="87"/>
       <c r="V24" s="87"/>
-      <c r="W24" s="265" t="s">
+      <c r="W24" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="X24" s="265"/>
-      <c r="Y24" s="265"/>
-      <c r="Z24" s="265"/>
-      <c r="AA24" s="256" t="str">
+      <c r="X24" s="242"/>
+      <c r="Y24" s="242"/>
+      <c r="Z24" s="242"/>
+      <c r="AA24" s="243" t="str">
         <f>IF(OR('Student Work'!AA24="Bank 1",'Student Work'!AA24="Bank 2",'Student Work'!AA24="Use my own bank."),"Correct","ERROR")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB24" s="256"/>
+      <c r="AB24" s="243"/>
       <c r="AC24" s="87"/>
       <c r="AD24" s="129">
         <v>5</v>
@@ -21277,15 +21277,15 @@
       <c r="A25" s="100"/>
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="245"/>
-      <c r="F25" s="245"/>
-      <c r="G25" s="245"/>
-      <c r="H25" s="245"/>
-      <c r="I25" s="246"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="257"/>
+      <c r="F25" s="257"/>
+      <c r="G25" s="257"/>
+      <c r="H25" s="257"/>
+      <c r="I25" s="258"/>
       <c r="J25" s="101"/>
-      <c r="K25" s="262"/>
-      <c r="L25" s="262"/>
+      <c r="K25" s="244"/>
+      <c r="L25" s="244"/>
       <c r="M25" s="135"/>
       <c r="N25" s="101"/>
       <c r="O25" s="136" t="s">
@@ -21313,17 +21313,17 @@
       </c>
       <c r="U25" s="87"/>
       <c r="V25" s="87"/>
-      <c r="W25" s="265" t="s">
+      <c r="W25" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="X25" s="265"/>
-      <c r="Y25" s="265"/>
-      <c r="Z25" s="265"/>
-      <c r="AA25" s="256" t="str">
+      <c r="X25" s="242"/>
+      <c r="Y25" s="242"/>
+      <c r="Z25" s="242"/>
+      <c r="AA25" s="243" t="str">
         <f>IF(AND('Student Work'!AA24="Bank 1",'Student Work'!AA25=1400),"Correct",IF(AND('Student Work'!AA24="Bank 2",'Student Work'!AA25=300),"Correct",IF(AND('Student Work'!AA24="Use my own bank.",'Student Work'!AA25&gt;0),"Correct","ERROR")))</f>
         <v>ERROR</v>
       </c>
-      <c r="AB25" s="256"/>
+      <c r="AB25" s="243"/>
       <c r="AC25" s="87"/>
       <c r="AD25" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD24+1&lt;='Student Work'!$AE$13,AD24&lt;&gt;0),AD24+1,IF('Student Work'!AD25&gt;0,"ERROR",0)),0)</f>
@@ -21351,8 +21351,8 @@
       <c r="AJ25" s="134"/>
       <c r="AK25" s="134"/>
       <c r="AL25" s="70"/>
-      <c r="AP25" s="266"/>
-      <c r="AQ25" s="266"/>
+      <c r="AP25" s="248"/>
+      <c r="AQ25" s="248"/>
     </row>
     <row r="26" spans="1:43" ht="16.149999999999999" customHeight="1">
       <c r="A26" s="69"/>
@@ -21365,11 +21365,11 @@
       <c r="H26" s="140"/>
       <c r="I26" s="140"/>
       <c r="J26" s="72"/>
-      <c r="K26" s="267" t="s">
+      <c r="K26" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="267"/>
-      <c r="M26" s="267"/>
+      <c r="L26" s="249"/>
+      <c r="M26" s="249"/>
       <c r="N26" s="101"/>
       <c r="O26" s="87"/>
       <c r="P26" s="137">
@@ -21394,17 +21394,17 @@
       </c>
       <c r="U26" s="87"/>
       <c r="V26" s="87"/>
-      <c r="W26" s="265" t="s">
+      <c r="W26" s="242" t="s">
         <v>54</v>
       </c>
-      <c r="X26" s="265"/>
-      <c r="Y26" s="265"/>
-      <c r="Z26" s="265"/>
-      <c r="AA26" s="256" t="str">
+      <c r="X26" s="242"/>
+      <c r="Y26" s="242"/>
+      <c r="Z26" s="242"/>
+      <c r="AA26" s="243" t="str">
         <f>IF(AND('Student Work'!AA24="Bank 1",'Student Work'!AA26=3.89%),"Correct",IF(AND('Student Work'!AA24="Bank 2",'Student Work'!AA26=3.55%),"Correct",IF(AND('Student Work'!AA24="Use my own bank.",'Student Work'!AA26&gt;0,'Student Work'!AA26&lt;0.2),"Correct","ERROR")))</f>
         <v>ERROR</v>
       </c>
-      <c r="AB26" s="256"/>
+      <c r="AB26" s="243"/>
       <c r="AC26" s="87"/>
       <c r="AD26" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD25+1&lt;='Student Work'!$AE$13,AD25&lt;&gt;0),AD25+1,IF('Student Work'!AD26&gt;0,"ERROR",0)),0)</f>
@@ -21445,9 +21445,9 @@
       <c r="H27" s="140"/>
       <c r="I27" s="140"/>
       <c r="J27" s="72"/>
-      <c r="K27" s="267"/>
-      <c r="L27" s="267"/>
-      <c r="M27" s="267"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="249"/>
+      <c r="M27" s="249"/>
       <c r="N27" s="101"/>
       <c r="O27" s="87"/>
       <c r="P27" s="137">
@@ -21472,12 +21472,12 @@
       </c>
       <c r="U27" s="87"/>
       <c r="V27" s="87"/>
-      <c r="W27" s="268"/>
-      <c r="X27" s="268"/>
-      <c r="Y27" s="268"/>
-      <c r="Z27" s="268"/>
-      <c r="AA27" s="268"/>
-      <c r="AB27" s="268"/>
+      <c r="W27" s="247"/>
+      <c r="X27" s="247"/>
+      <c r="Y27" s="247"/>
+      <c r="Z27" s="247"/>
+      <c r="AA27" s="247"/>
+      <c r="AB27" s="247"/>
       <c r="AC27" s="87"/>
       <c r="AD27" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD26+1&lt;='Student Work'!$AE$13,AD26&lt;&gt;0),AD26+1,IF('Student Work'!AD27&gt;0,"ERROR",0)),0)</f>
@@ -21518,9 +21518,9 @@
       <c r="H28" s="140"/>
       <c r="I28" s="140"/>
       <c r="J28" s="72"/>
-      <c r="K28" s="267"/>
-      <c r="L28" s="267"/>
-      <c r="M28" s="267"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="249"/>
       <c r="N28" s="101"/>
       <c r="O28" s="87"/>
       <c r="P28" s="137">
@@ -21591,9 +21591,9 @@
       <c r="H29" s="140"/>
       <c r="I29" s="140"/>
       <c r="J29" s="72"/>
-      <c r="K29" s="267"/>
-      <c r="L29" s="267"/>
-      <c r="M29" s="267"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="249"/>
+      <c r="M29" s="249"/>
       <c r="N29" s="72"/>
       <c r="O29" s="87"/>
       <c r="P29" s="137">
@@ -21618,14 +21618,14 @@
       </c>
       <c r="U29" s="87"/>
       <c r="V29" s="87"/>
-      <c r="W29" s="263" t="s">
+      <c r="W29" s="245" t="s">
         <v>59</v>
       </c>
-      <c r="X29" s="263"/>
-      <c r="Y29" s="263"/>
-      <c r="Z29" s="263"/>
-      <c r="AA29" s="263"/>
-      <c r="AB29" s="263"/>
+      <c r="X29" s="245"/>
+      <c r="Y29" s="245"/>
+      <c r="Z29" s="245"/>
+      <c r="AA29" s="245"/>
+      <c r="AB29" s="245"/>
       <c r="AC29" s="87"/>
       <c r="AD29" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD28+1&lt;='Student Work'!$AE$13,AD28&lt;&gt;0),AD28+1,IF('Student Work'!AD29&gt;0,"ERROR",0)),0)</f>
@@ -21666,10 +21666,10 @@
       <c r="H30" s="140"/>
       <c r="I30" s="140"/>
       <c r="J30" s="101"/>
-      <c r="K30" s="262" t="s">
+      <c r="K30" s="244" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="262"/>
+      <c r="L30" s="244"/>
       <c r="M30" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M30),"ERROR",IF(ABS('Student Work'!T139-'Student Work'!M30)&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21698,12 +21698,12 @@
       </c>
       <c r="U30" s="87"/>
       <c r="V30" s="87"/>
-      <c r="W30" s="264"/>
-      <c r="X30" s="264"/>
-      <c r="Y30" s="264"/>
-      <c r="Z30" s="264"/>
-      <c r="AA30" s="264"/>
-      <c r="AB30" s="264"/>
+      <c r="W30" s="246"/>
+      <c r="X30" s="246"/>
+      <c r="Y30" s="246"/>
+      <c r="Z30" s="246"/>
+      <c r="AA30" s="246"/>
+      <c r="AB30" s="246"/>
       <c r="AC30" s="87"/>
       <c r="AD30" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD29+1&lt;='Student Work'!$AE$13,AD29&lt;&gt;0),AD29+1,IF('Student Work'!AD30&gt;0,"ERROR",0)),0)</f>
@@ -21744,10 +21744,10 @@
       <c r="H31" s="140"/>
       <c r="I31" s="140"/>
       <c r="J31" s="101"/>
-      <c r="K31" s="262" t="s">
+      <c r="K31" s="244" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="262"/>
+      <c r="L31" s="244"/>
       <c r="M31" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M31),"ERROR",IF(ABS('Student Work'!AH139-'Student Work'!M31)&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21776,17 +21776,17 @@
       </c>
       <c r="U31" s="87"/>
       <c r="V31" s="87"/>
-      <c r="W31" s="265" t="s">
+      <c r="W31" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="X31" s="265"/>
-      <c r="Y31" s="265"/>
-      <c r="Z31" s="265"/>
-      <c r="AA31" s="256" t="str">
+      <c r="X31" s="242"/>
+      <c r="Y31" s="242"/>
+      <c r="Z31" s="242"/>
+      <c r="AA31" s="243" t="str">
         <f>IF(OR('Student Work'!AA31="Bank 1",'Student Work'!AA31="Bank 2",'Student Work'!AA31="Use my own bank."),"Correct","ERROR")</f>
         <v>ERROR</v>
       </c>
-      <c r="AB31" s="256"/>
+      <c r="AB31" s="243"/>
       <c r="AC31" s="87"/>
       <c r="AD31" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD30+1&lt;='Student Work'!$AE$13,AD30&lt;&gt;0),AD30+1,IF('Student Work'!AD31&gt;0,"ERROR",0)),0)</f>
@@ -21827,10 +21827,10 @@
       <c r="H32" s="140"/>
       <c r="I32" s="140"/>
       <c r="J32" s="101"/>
-      <c r="K32" s="262" t="s">
+      <c r="K32" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="262"/>
+      <c r="L32" s="244"/>
       <c r="M32" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M32),"ERROR",IF(ABS('Student Work'!M32-ROUND(1.2*'Student Work'!T8,0)+'Student Work'!M30)&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21859,17 +21859,17 @@
       </c>
       <c r="U32" s="87"/>
       <c r="V32" s="87"/>
-      <c r="W32" s="265" t="s">
+      <c r="W32" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="X32" s="265"/>
-      <c r="Y32" s="265"/>
-      <c r="Z32" s="265"/>
-      <c r="AA32" s="256" t="str">
+      <c r="X32" s="242"/>
+      <c r="Y32" s="242"/>
+      <c r="Z32" s="242"/>
+      <c r="AA32" s="243" t="str">
         <f>IF(AND('Student Work'!AA31="Bank 1",'Student Work'!AA32=1700),"Correct",IF(AND('Student Work'!AA31="Bank 2",'Student Work'!AA32=500),"Correct",IF(AND('Student Work'!AA31="Use my own bank.",'Student Work'!AA32&gt;0),"Correct","ERROR")))</f>
         <v>ERROR</v>
       </c>
-      <c r="AB32" s="256"/>
+      <c r="AB32" s="243"/>
       <c r="AC32" s="87"/>
       <c r="AD32" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD31+1&lt;='Student Work'!$AE$13,AD31&lt;&gt;0),AD31+1,IF('Student Work'!AD32&gt;0,"ERROR",0)),0)</f>
@@ -21910,10 +21910,10 @@
       <c r="H33" s="140"/>
       <c r="I33" s="140"/>
       <c r="J33" s="101"/>
-      <c r="K33" s="262" t="s">
+      <c r="K33" s="244" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="262"/>
+      <c r="L33" s="244"/>
       <c r="M33" s="131" t="str">
         <f>IF(ISBLANK('Student Work'!M33),"ERROR",IF(ABS('Student Work'!M33-ROUND(1.2*'Student Work'!T8,0)+'Student Work'!M31)&lt;0.01,"Correct","ERROR"))</f>
         <v>ERROR</v>
@@ -21942,17 +21942,17 @@
       </c>
       <c r="U33" s="87"/>
       <c r="V33" s="87"/>
-      <c r="W33" s="265" t="s">
+      <c r="W33" s="242" t="s">
         <v>54</v>
       </c>
-      <c r="X33" s="265"/>
-      <c r="Y33" s="265"/>
-      <c r="Z33" s="265"/>
-      <c r="AA33" s="256" t="str">
+      <c r="X33" s="242"/>
+      <c r="Y33" s="242"/>
+      <c r="Z33" s="242"/>
+      <c r="AA33" s="243" t="str">
         <f>IF(AND('Student Work'!AA31="Bank 1",'Student Work'!AA33=4.59%),"Correct",IF(AND('Student Work'!AA31="Bank 2",'Student Work'!AA33=4.35%),"Correct",IF(AND('Student Work'!AA31="Use my own bank.",'Student Work'!AA33&gt;0,'Student Work'!AA33&lt;0.2),"Correct","ERROR")))</f>
         <v>ERROR</v>
       </c>
-      <c r="AB33" s="256"/>
+      <c r="AB33" s="243"/>
       <c r="AC33" s="87"/>
       <c r="AD33" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD32+1&lt;='Student Work'!$AE$13,AD32&lt;&gt;0),AD32+1,IF('Student Work'!AD33&gt;0,"ERROR",0)),0)</f>
@@ -21993,8 +21993,8 @@
       <c r="H34" s="140"/>
       <c r="I34" s="140"/>
       <c r="J34" s="101"/>
-      <c r="K34" s="262"/>
-      <c r="L34" s="262"/>
+      <c r="K34" s="244"/>
+      <c r="L34" s="244"/>
       <c r="M34" s="135"/>
       <c r="N34" s="101"/>
       <c r="O34" s="87"/>
@@ -22020,12 +22020,12 @@
       </c>
       <c r="U34" s="87"/>
       <c r="V34" s="87"/>
-      <c r="W34" s="268"/>
-      <c r="X34" s="268"/>
-      <c r="Y34" s="268"/>
-      <c r="Z34" s="268"/>
-      <c r="AA34" s="268"/>
-      <c r="AB34" s="268"/>
+      <c r="W34" s="247"/>
+      <c r="X34" s="247"/>
+      <c r="Y34" s="247"/>
+      <c r="Z34" s="247"/>
+      <c r="AA34" s="247"/>
+      <c r="AB34" s="247"/>
       <c r="AC34" s="87"/>
       <c r="AD34" s="137">
         <f>IF($AE$13="Correct",IF(AND(AD33+1&lt;='Student Work'!$AE$13,AD33&lt;&gt;0),AD33+1,IF('Student Work'!AD34&gt;0,"ERROR",0)),0)</f>
@@ -49605,13 +49605,49 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NshzEDbmFRdkiIv8gTFJk56G9ZqpZnBuwdCBmaneYZjpopbeC7u16To+u/JvWltSi32dgGbYBHqQUo46R8TAkw==" saltValue="z0P3DOiGOI9Tzj2UoYWQIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W6:AC6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="D7:I9"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AG7:AH9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Q10:R12"/>
+    <mergeCell ref="W10:AC16"/>
+    <mergeCell ref="AG10:AH12"/>
+    <mergeCell ref="D11:I12"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D20:I25"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="W22:AB23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="K26:M29"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="W25:Z25"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="W29:AB30"/>
@@ -49623,144 +49659,110 @@
     <mergeCell ref="W32:Z32"/>
     <mergeCell ref="W34:AB34"/>
     <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="K26:M29"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="D20:I25"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="W22:AB23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="D11:I12"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Q10:R12"/>
-    <mergeCell ref="W10:AC16"/>
-    <mergeCell ref="AG10:AH12"/>
-    <mergeCell ref="D7:I9"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AG7:AH9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W6:AC6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AA25:AB25"/>
   </mergeCells>
-  <conditionalFormatting sqref="Z18:Z21 AA35:AA38 Z35:Z399 U37:V400 W35:Y398 AA39:AB398 AC29 W28:AB28 AC38:AC400 AB36:AB38">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Caution">
-      <formula>NOT(ISERROR(SEARCH("Caution",U18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Correct">
-      <formula>NOT(ISERROR(SEARCH("Correct",U18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",U18)))</formula>
+  <conditionalFormatting sqref="L3:M3">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",L3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI18:AI19 AC30:AC37 AC18:AC28 P20:V26 U27:V36 P27:T400 AF25:AF400 AD25:AD400 P7:V16 P17:AI17 X20:Y21 P18:Y19 AA18:AB21 AB35 AD7:AI16 AD20:AI20 AD21:AF24 AI21:AI24 AI26:AI400 AG21:AH400">
-    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="Caution">
-      <formula>NOT(ISERROR(SEARCH("Caution",P7)))</formula>
+  <conditionalFormatting sqref="L4:M5">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Correct">
+      <formula>NOT(ISERROR(SEARCH("Correct",L4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="68" operator="containsText" text="Correct">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:M24 M30:M33">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Correct">
+      <formula>NOT(ISERROR(SEARCH("Correct",M21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",M21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N5">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:P400 AD25:AD400">
+    <cfRule type="containsText" dxfId="16" priority="62" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",P25)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="66" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:V16 AD7:AI16 P17:AI17 P18:Y19 X20:Y21 P20:V26 AD21:AF24 AI21:AI24 AG21:AH400 AD25:AD400 AI26:AI400 P27:T400">
+    <cfRule type="containsText" dxfId="14" priority="68" operator="containsText" text="Correct">
       <formula>NOT(ISERROR(SEARCH("Correct",P7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="69" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="13" priority="69" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P400 AD25:AD400">
-    <cfRule type="containsText" dxfId="17" priority="62" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",P25)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="66" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25:AE400">
-    <cfRule type="containsText" dxfId="15" priority="63" operator="containsText" text="Caution">
-      <formula>NOT(ISERROR(SEARCH("Caution",AE25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="64" operator="containsText" text="Correct">
-      <formula>NOT(ISERROR(SEARCH("Correct",AE25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="65" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",AE25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD18:AH19">
-    <cfRule type="containsText" dxfId="10" priority="58" operator="containsText" text="Caution">
-      <formula>NOT(ISERROR(SEARCH("Caution",AD18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="59" operator="containsText" text="Correct">
-      <formula>NOT(ISERROR(SEARCH("Correct",AD18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="60" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",AD18)))</formula>
+  <conditionalFormatting sqref="P20:V26 AD25:AD400 P27:T400 P7:V16 AD7:AI16 P17:AI17 P18:Y19 X20:Y21 AD21:AF24 AI21:AI24 AG21:AH400 AI26:AI400">
+    <cfRule type="containsText" dxfId="12" priority="67" operator="containsText" text="Caution">
+      <formula>NOT(ISERROR(SEARCH("Caution",P7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:AC16">
-    <cfRule type="containsText" dxfId="7" priority="57" operator="containsText" text="Caution:">
+    <cfRule type="containsText" dxfId="11" priority="57" operator="containsText" text="Caution:">
       <formula>NOT(ISERROR(SEARCH("Caution:",W10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:Y9 AA7:AB9 AA24:AB26 AA31:AB33">
-    <cfRule type="containsText" dxfId="6" priority="55" operator="containsText" text="Correct">
+    <cfRule type="containsText" dxfId="10" priority="55" operator="containsText" text="Correct">
       <formula>NOT(ISERROR(SEARCH("Correct",X7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="56" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="9" priority="56" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",X7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:M5">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Correct">
-      <formula>NOT(ISERROR(SEARCH("Correct",L4)))</formula>
+  <conditionalFormatting sqref="Z18:AB21 AC18:AC400 U27:V400 W28:AB28 W35:Y398 AA35:AB398 Z35:Z399">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Caution">
+      <formula>NOT(ISERROR(SEARCH("Caution",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Correct">
+      <formula>NOT(ISERROR(SEARCH("Correct",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",U18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M3">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",L3)))</formula>
+  <conditionalFormatting sqref="AD18:AI20">
+    <cfRule type="containsText" dxfId="5" priority="58" operator="containsText" text="Caution">
+      <formula>NOT(ISERROR(SEARCH("Caution",AD18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="59" operator="containsText" text="Correct">
+      <formula>NOT(ISERROR(SEARCH("Correct",AD18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="60" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",AD18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N5">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AE25:AF400">
+    <cfRule type="containsText" dxfId="2" priority="63" operator="containsText" text="Caution">
+      <formula>NOT(ISERROR(SEARCH("Caution",AE25)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M24 M30:M33">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Correct">
-      <formula>NOT(ISERROR(SEARCH("Correct",M21)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="64" operator="containsText" text="Correct">
+      <formula>NOT(ISERROR(SEARCH("Correct",AE25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",M21)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="65" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",AE25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49778,6 +49780,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EE9427BAFDC4142A85C63EA4F6ED86E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aefba5758486f11fc3a0c5d0e35bd0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0acb5147-8577-475e-9c5c-8643af49afee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9f6208de9fe288a9025870c70b3201d" ns3:_="">
     <xsd:import namespace="0acb5147-8577-475e-9c5c-8643af49afee"/>
@@ -49961,12 +49969,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34DF197C-C302-4DFA-87A4-CA7E205F71FB}">
   <ds:schemaRefs>
@@ -49976,6 +49978,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6BF3D1-55F2-4441-808A-8989E5F02D69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0acb5147-8577-475e-9c5c-8643af49afee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D06F5C1-0789-48F7-9B86-2A615A6DE901}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49991,20 +50009,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6BF3D1-55F2-4441-808A-8989E5F02D69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0acb5147-8577-475e-9c5c-8643af49afee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>